--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail0 Features.xlsx
@@ -5123,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5134,29 +5134,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="19" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5177,115 +5175,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5302,72 +5290,66 @@
         <v>1.619376779589126e-06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.899927543737105</v>
+        <v>1.169662251897536e-05</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>16.41219540875468</v>
+        <v>1.4034213413943e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.169662251897536e-05</v>
+        <v>0.1173948450001947</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.4034213413943e-05</v>
+        <v>0.362376635784819</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1173948450001947</v>
+        <v>0.1448054722574277</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.362376635784819</v>
+        <v>1.598891961681264</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1448054722574277</v>
+        <v>1.554104637583615</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.513101746431896</v>
+        <v>4.185206034529424</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.554104637583615</v>
+        <v>1.288672241718568e-13</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.185206034529424</v>
+        <v>6904379.766093795</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.288672241718568e-13</v>
+        <v>1.560298590589335e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>6904379.766093795</v>
+        <v>6.14315984932504</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.560298590589335e-05</v>
+        <v>0.0001060037465994479</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.14315984932504</v>
+        <v>9.578320616007353</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001060037465994479</v>
+        <v>1.352033911558512</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.578320616007353</v>
+        <v>0.00972523166610716</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.352033911558512</v>
+        <v>3.200138784338934</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.00972523166610716</v>
+        <v>0.9416805000651219</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.200138784338934</v>
+        <v>1.813571506497465</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9416805000651219</v>
+        <v>10</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.813571506497465</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2449255698813569</v>
       </c>
     </row>
@@ -5382,72 +5364,66 @@
         <v>1.1567401489359e-06</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3.718399444118739</v>
+        <v>8.751431806650189e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>16.09872751683854</v>
+        <v>1.420109153921567e-05</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.751431806650189e-06</v>
+        <v>0.1262389845597481</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.420109153921567e-05</v>
+        <v>0.3944759512044547</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.1262389845597481</v>
+        <v>0.1712111504380397</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3944759512044547</v>
+        <v>1.785306707645823</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1712111504380397</v>
+        <v>1.261150123281232</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.977453237121696</v>
+        <v>29.16650441549818</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.261150123281232</v>
+        <v>2.849931290179854e-12</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>29.16650441549818</v>
+        <v>45382967.96616229</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.849931290179854e-12</v>
+        <v>2.362737845865702e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45382967.96616229</v>
+        <v>5869.75776134799</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.362737845865702e-06</v>
+        <v>0.0001369868427740459</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5869.75776134799</v>
+        <v>7.762867467497935</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001369868427740459</v>
+        <v>2.538389392542213</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.762867467497935</v>
+        <v>0.008255116368342398</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>2.538389392542213</v>
+        <v>3.283259409350704</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008255116368342398</v>
+        <v>0.9400907477782914</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.283259409350704</v>
+        <v>0.2300819618191435</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9400907477782914</v>
+        <v>17</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.2300819618191435</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.214101163955077</v>
       </c>
     </row>
@@ -5462,72 +5438,66 @@
         <v>8.320262149454507e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-3.06379233058173</v>
+        <v>6.494722460303744e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>13.30174591339546</v>
+        <v>1.432727775626244e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.494722460303744e-06</v>
+        <v>0.1283445984953268</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.432727775626244e-05</v>
+        <v>0.4320481573359974</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.1283445984953268</v>
+        <v>0.2027499102388721</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.4320481573359974</v>
+        <v>1.624082536536833</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.2027499102388721</v>
+        <v>1.707107763870214</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.744645285861587</v>
+        <v>13.45904580401817</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.707107763870214</v>
+        <v>1.378303902398207e-11</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>13.45904580401817</v>
+        <v>21231069.70637833</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.378303902398207e-11</v>
+        <v>5.045817916118111e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>21231069.70637833</v>
+        <v>6212.819527033638</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.045817916118111e-06</v>
+        <v>0.0001569808116192903</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6212.819527033638</v>
+        <v>9.310044926629651</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001569808116192903</v>
+        <v>2.206617410127857</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.310044926629651</v>
+        <v>0.01360661584607341</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2.206617410127857</v>
+        <v>5.104668992126139</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01360661584607341</v>
+        <v>0.9394124335541755</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.104668992126139</v>
+        <v>0.5415313662887773</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9394124335541755</v>
+        <v>54</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.5415313662887773</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>4.896068608814664</v>
       </c>
     </row>
@@ -5542,72 +5512,66 @@
         <v>6.183522360033239e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.804920229626987</v>
+        <v>4.709316820203454e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.403285978376612</v>
+        <v>1.44162727598828e-05</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.709316820203454e-06</v>
+        <v>0.1175039578767017</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.44162727598828e-05</v>
+        <v>0.4657403717987109</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.1175039578767017</v>
+        <v>0.2303003258008025</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.4657403717987109</v>
+        <v>1.623239139191758</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.2303003258008025</v>
+        <v>1.707128565471635</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.74134623809178</v>
+        <v>13.45773307735398</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.707128565471635</v>
+        <v>1.378572807200961e-11</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>13.45773307735398</v>
+        <v>21226932.12384778</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.378572807200961e-11</v>
+        <v>5.046800582329299e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>21226932.12384778</v>
+        <v>6211.609850890809</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.046800582329299e-06</v>
+        <v>1.431561765466469e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6211.609850890809</v>
+        <v>8.449668045145785</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1.431561765466469e-05</v>
+        <v>1.316596471921392</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.449668045145785</v>
+        <v>0.001022090580019452</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.316596471921392</v>
+        <v>7.588723977479493</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.001022090580019452</v>
+        <v>0.9350756877297249</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.588723977479493</v>
+        <v>0.6051587387295994</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9350756877297249</v>
+        <v>55</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6051587387295994</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>13.23678017097478</v>
       </c>
     </row>
@@ -5622,72 +5586,66 @@
         <v>4.966607244068605e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.4134895625979959</v>
+        <v>3.350447241985517e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.544798468080868</v>
+        <v>1.447493187386856e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.350447241985517e-06</v>
+        <v>0.09243015909065039</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.447493187386856e-05</v>
+        <v>0.4768199794158519</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.09243015909065039</v>
+        <v>0.2355165203576701</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.4768199794158519</v>
+        <v>1.62318821197097</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.2355165203576701</v>
+        <v>1.706158068826951</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.741314401874521</v>
+        <v>13.45104107302791</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.706158068826951</v>
+        <v>1.379944851193648e-11</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>13.45104107302791</v>
+        <v>21205826.81647907</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.379944851193648e-11</v>
+        <v>5.051823372746665e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>21205826.81647907</v>
+        <v>6205.43385832995</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.051823372746665e-06</v>
+        <v>6.994215295350095e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6205.43385832995</v>
+        <v>6.449172392436502</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>6.994215295350095e-06</v>
+        <v>1.668031196323469</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.449172392436502</v>
+        <v>0.0002909021754106989</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.668031196323469</v>
+        <v>7.975360366084534</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0002909021754106989</v>
+        <v>0.9334408260903251</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>7.975360366084534</v>
+        <v>0.5349961436955053</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9334408260903251</v>
+        <v>48</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.5349961436955053</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>15.35048052218455</v>
       </c>
     </row>
@@ -5702,72 +5660,66 @@
         <v>4.433121790002644e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2707134627238701</v>
+        <v>2.29958987666966e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.5288533988388862</v>
+        <v>1.450988319704529e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.29958987666966e-06</v>
+        <v>0.05632878483942379</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.450988319704529e-05</v>
+        <v>0.4495975857646101</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.05632878483942379</v>
+        <v>0.2050205336241321</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.4495975857646101</v>
+        <v>1.623300763789286</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.2050205336241321</v>
+        <v>1.70506213811824</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.741308578482455</v>
+        <v>13.44104903997101</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.70506213811824</v>
+        <v>1.381997307021379e-11</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>13.44104903997101</v>
+        <v>21174333.56670064</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.381997307021379e-11</v>
+        <v>5.059337181952488e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>21174333.56670064</v>
+        <v>6196.21812152144</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.059337181952488e-06</v>
+        <v>5.620423647725742e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6196.21812152144</v>
+        <v>4.883121283834191</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>5.620423647725742e-06</v>
+        <v>2.03424812883073</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>4.883121283834191</v>
+        <v>0.000134018290742623</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>2.03424812883073</v>
+        <v>8.14637350023629</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.000134018290742623</v>
+        <v>0.9340444384359998</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.14637350023629</v>
+        <v>0.5442209796342268</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9340444384359998</v>
+        <v>46</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.5442209796342268</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>15.92449173611056</v>
       </c>
     </row>
@@ -5782,72 +5734,66 @@
         <v>4.290862291040303e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3363700299055937</v>
+        <v>1.707010105797927e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.6034256717788478</v>
+        <v>1.452642566714035e-05</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.707010105797927e-06</v>
+        <v>0.02082403729598847</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.452642566714035e-05</v>
+        <v>0.4017476288007329</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02082403729598847</v>
+        <v>0.1616522649725889</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.4017476288007329</v>
+        <v>1.623278878416327</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1616522649725889</v>
+        <v>1.704230915256846</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.741264062264245</v>
+        <v>13.43149266441461</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.704230915256846</v>
+        <v>1.383964561726231e-11</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>13.43149266441461</v>
+        <v>21144235.93007722</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.383964561726231e-11</v>
+        <v>5.066538958366701e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>21144235.93007722</v>
+        <v>6187.410951865774</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.066538958366701e-06</v>
+        <v>5.082331019077462e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>6187.410951865774</v>
+        <v>4.120761576678391</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>5.082331019077462e-06</v>
+        <v>2.127887099509639</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>4.120761576678391</v>
+        <v>8.630141621652977e-05</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>2.127887099509639</v>
+        <v>8.253799499919715</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>8.630141621652977e-05</v>
+        <v>0.9352691861445468</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.253799499919715</v>
+        <v>0.5343066895883829</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9352691861445468</v>
+        <v>46</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.5343066895883829</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>16.09910852113865</v>
       </c>
     </row>
@@ -5862,72 +5808,66 @@
         <v>4.280673485968618e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3250476558199678</v>
+        <v>1.707010105797927e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.5914695440269711</v>
+        <v>1.452886307119956e-05</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.707010105797927e-06</v>
+        <v>-0.008421968498931065</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.452886307119956e-05</v>
+        <v>0.3537183525583258</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.008421968498931065</v>
+        <v>0.1250511695743274</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3537183525583258</v>
+        <v>1.622974064938615</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1250511695743274</v>
+        <v>1.704170610608619</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.740791975845914</v>
+        <v>13.42646304219785</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.704170610608619</v>
+        <v>1.385001636444165e-11</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>13.42646304219785</v>
+        <v>21128405.71388442</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.385001636444165e-11</v>
+        <v>5.070334389879073e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>21128405.71388442</v>
+        <v>6182.779268188153</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.070334389879073e-06</v>
+        <v>4.951547330772217e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>6182.779268188153</v>
+        <v>3.954832334288393</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>4.951547330772217e-06</v>
+        <v>2.14023382241421</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>3.954832334288393</v>
+        <v>7.744566035658861e-05</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>2.14023382241421</v>
+        <v>8.328949193368281</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>7.744566035658861e-05</v>
+        <v>0.9367593410137217</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.328949193368281</v>
+        <v>0.5503785583922693</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9367593410137217</v>
+        <v>46</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.5503785583922693</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>15.96055135284962</v>
       </c>
     </row>
@@ -5942,72 +5882,66 @@
         <v>4.230219531004005e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.3693834532280936</v>
+        <v>1.707010105797927e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.4937511783904172</v>
+        <v>1.451949714040575e-05</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.707010105797927e-06</v>
+        <v>-0.03478216586570666</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.451949714040575e-05</v>
+        <v>0.3102397797111771</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03478216586570666</v>
+        <v>0.09738680160032923</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.3102397797111771</v>
+        <v>1.62274580015101</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.09738680160032923</v>
+        <v>1.703605860876183</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.740267103146456</v>
+        <v>13.42988513895211</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.703605860876183</v>
+        <v>1.384295896119384e-11</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>13.42988513895211</v>
+        <v>21139179.22685042</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.384295896119384e-11</v>
+        <v>5.06775010028991e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>21139179.22685042</v>
+        <v>6185.932449540286</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.06775010028991e-06</v>
+        <v>5.258247939441519e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>6185.932449540286</v>
+        <v>5.579056342519597</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>5.258247939441519e-06</v>
+        <v>1.729656792596833</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>5.579056342519597</v>
+        <v>0.0001636675400714203</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.729656792596833</v>
+        <v>8.318159071937675</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0001636675400714203</v>
+        <v>0.9371494305874272</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.318159071937675</v>
+        <v>0.6267056792856939</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9371494305874272</v>
+        <v>49</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.6267056792856939</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>15.67837997634404</v>
       </c>
     </row>
@@ -6022,72 +5956,66 @@
         <v>4.078796361548059e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3734266285426034</v>
+        <v>1.707010105797927e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.4019358357388154</v>
+        <v>1.450221308570225e-05</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.707010105797927e-06</v>
+        <v>-0.04454891352035266</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.450221308570225e-05</v>
+        <v>0.3153616224412102</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04454891352035266</v>
+        <v>0.1014262796357556</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3153616224412102</v>
+        <v>1.622640317956807</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.1014262796357556</v>
+        <v>1.702327475654612</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.740271882232341</v>
+        <v>13.43685352878159</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.702327475654612</v>
+        <v>1.38286046897563e-11</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>13.43685352878159</v>
+        <v>21161121.65485859</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.38286046897563e-11</v>
+        <v>5.062495175386307e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>21161121.65485859</v>
+        <v>6192.353343579355</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.062495175386307e-06</v>
+        <v>6.235375218464898e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>6192.353343579355</v>
+        <v>6.870351351966453</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>6.235375218464898e-06</v>
+        <v>1.601887988170755</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>6.870351351966453</v>
+        <v>0.0002943204831659864</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.601887988170755</v>
+        <v>8.17426990245945</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0002943204831659864</v>
+        <v>0.938897513827859</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.17426990245945</v>
+        <v>0.613103200550682</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.938897513827859</v>
+        <v>56</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.613103200550682</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>15.40085281324488</v>
       </c>
     </row>
@@ -6102,72 +6030,66 @@
         <v>3.948432249886971e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3929378503262917</v>
+        <v>1.707010105797927e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.2917784047082477</v>
+        <v>1.448456178336725e-05</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.707010105797927e-06</v>
+        <v>-0.04319243018800289</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.448456178336725e-05</v>
+        <v>0.3232755694877992</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04319243018800289</v>
+        <v>0.1063561299501627</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.3232755694877992</v>
+        <v>1.622594484029735</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.1063561299501627</v>
+        <v>1.701463668206299</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.7401674999721</v>
+        <v>13.44973292222605</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.701463668206299</v>
+        <v>1.380213297230721e-11</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>13.44973292222605</v>
+        <v>21201705.64633695</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.380213297230721e-11</v>
+        <v>5.052804521368376e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>21201705.64633695</v>
+        <v>6204.228845267289</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.052804521368376e-06</v>
+        <v>5.80313531148827e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>6204.228845267289</v>
+        <v>5.12397684991658</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>5.80313531148827e-06</v>
+        <v>1.788855498365064</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>5.12397684991658</v>
+        <v>0.0001523621228373656</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.788855498365064</v>
+        <v>8.169963302199152</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0001523621228373656</v>
+        <v>0.9393051543126514</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.169963302199152</v>
+        <v>0.5432835584947701</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9393051543126514</v>
+        <v>56</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.5432835584947701</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>15.68241621208643</v>
       </c>
     </row>
@@ -6182,72 +6104,66 @@
         <v>3.872971254062257e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4489247497009926</v>
+        <v>1.707010105797927e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.1484855225366153</v>
+        <v>1.446821975894356e-05</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.707010105797927e-06</v>
+        <v>-0.04045372160905614</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.446821975894356e-05</v>
+        <v>0.326342146053292</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04045372160905614</v>
+        <v>0.1081214300368529</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.326342146053292</v>
+        <v>1.623146446052431</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.1081214300368529</v>
+        <v>1.705189992943431</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.740863445650404</v>
+        <v>13.45523101292704</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.705189992943431</v>
+        <v>1.379085559257375e-11</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>13.45523101292704</v>
+        <v>21219042.34060742</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.379085559257375e-11</v>
+        <v>5.048676667843279e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>21219042.34060742</v>
+        <v>6209.301809423812</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.048676667843279e-06</v>
+        <v>5.171623929983693e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>6209.301809423812</v>
+        <v>4.042927547637602</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>5.171623929983693e-06</v>
+        <v>2.068893348042754</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>4.042927547637602</v>
+        <v>8.453155407659044e-05</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>2.068893348042754</v>
+        <v>8.254927709162486</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>8.453155407659044e-05</v>
+        <v>0.9436394337096288</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.254927709162486</v>
+        <v>0.5314310753275852</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9436394337096288</v>
+        <v>56</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.5314310753275852</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>16.00121210088512</v>
       </c>
     </row>
@@ -6262,72 +6178,66 @@
         <v>3.844287092410158e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5182432969132722</v>
+        <v>1.707010105797927e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.02985741014338661</v>
+        <v>1.445321597866885e-05</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.707010105797927e-06</v>
+        <v>-0.03741688887336082</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.445321597866885e-05</v>
+        <v>0.3262022434361005</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.03741688887336082</v>
+        <v>0.1077982269921073</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.3262022434361005</v>
+        <v>1.623366182541939</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.1077982269921073</v>
+        <v>1.702753384021532</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.741461902591582</v>
+        <v>13.45591325942714</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.702753384021532</v>
+        <v>1.378945717029549e-11</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>13.45591325942714</v>
+        <v>21221194.03390256</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.378945717029549e-11</v>
+        <v>5.048165000504351e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>21221194.03390256</v>
+        <v>6209.931403708751</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.048165000504351e-06</v>
+        <v>4.761203783762159e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>6209.931403708751</v>
+        <v>4.015612526024692</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>4.761203783762159e-06</v>
+        <v>2.041431060739752</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>4.015612526024692</v>
+        <v>7.677509643209261e-05</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>2.041431060739752</v>
+        <v>8.331910159263792</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>7.677509643209261e-05</v>
+        <v>0.9463819265990085</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.331910159263792</v>
+        <v>0.5887567938020832</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9463819265990085</v>
+        <v>56</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.5887567938020832</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>16.1255257909921</v>
       </c>
     </row>
@@ -6342,72 +6252,66 @@
         <v>3.848072910267729e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5821196021730801</v>
+        <v>1.707010105797927e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.04147781069087575</v>
+        <v>1.443941866345235e-05</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.707010105797927e-06</v>
+        <v>-0.03444392142656857</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.443941866345235e-05</v>
+        <v>0.3242444744125701</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.03444392142656857</v>
+        <v>0.1063161349720061</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.3242444744125701</v>
+        <v>1.623781231881924</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.1063161349720061</v>
+        <v>1.698705694938426</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.742220355722904</v>
+        <v>13.47165055328526</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.698705694938426</v>
+        <v>1.375725889046446e-11</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>13.47165055328526</v>
+        <v>21270860.72934577</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.375725889046446e-11</v>
+        <v>5.036378390769318e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>21270860.72934577</v>
+        <v>6224.465128777887</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>5.036378390769318e-06</v>
+        <v>4.561347551659804e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>6224.465128777887</v>
+        <v>4.858507229821325</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>4.561347551659804e-06</v>
+        <v>2.00468324553771</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>4.858507229821325</v>
+        <v>0.0001076710308917322</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>2.00468324553771</v>
+        <v>8.393464887030051</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0001076710308917322</v>
+        <v>0.9486281281831352</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.393464887030051</v>
+        <v>0.5854081796672125</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9486281281831352</v>
+        <v>56</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.5854081796672125</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>16.04590323965637</v>
       </c>
     </row>
@@ -6422,72 +6326,66 @@
         <v>3.870054237269125e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.6351616954810793</v>
+        <v>1.707010105797927e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.07464948837396168</v>
+        <v>1.442673515061445e-05</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.707010105797927e-06</v>
+        <v>-0.03137482045714925</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.442673515061445e-05</v>
+        <v>0.3213094252884889</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03137482045714925</v>
+        <v>0.104220469914566</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.3213094252884889</v>
+        <v>1.623510663701328</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.104220469914566</v>
+        <v>1.696459883649315</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.74175244825735</v>
+        <v>13.5237731363085</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.696459883649315</v>
+        <v>1.365141830479298e-11</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>13.5237731363085</v>
+        <v>21435778.00116572</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.365141830479298e-11</v>
+        <v>4.99763027015276e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>21435778.00116572</v>
+        <v>6272.725397259751</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.99763027015276e-06</v>
+        <v>5.485031451541963e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>6272.725397259751</v>
+        <v>8.100597433875437</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>5.485031451541963e-06</v>
+        <v>1.515178938922183</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.100597433875437</v>
+        <v>0.0003599260019796965</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.515178938922183</v>
+        <v>8.391811922059921</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0003599260019796965</v>
+        <v>0.9433765458847908</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.391811922059921</v>
+        <v>0.592938608589246</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9433765458847908</v>
+        <v>57</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.592938608589246</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>15.40392930858169</v>
       </c>
     </row>
@@ -6502,72 +6400,66 @@
         <v>3.904931566666588e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6752639691720931</v>
+        <v>1.707010105797927e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.07686064715266161</v>
+        <v>1.441494360326457e-05</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.707010105797927e-06</v>
+        <v>-0.02974810200161085</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.441494360326457e-05</v>
+        <v>0.3179032233313577</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02974810200161085</v>
+        <v>0.101944247720067</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.3179032233313577</v>
+        <v>1.624557148944041</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.101944247720067</v>
+        <v>1.705301757904725</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.743542164953778</v>
+        <v>13.55821728131235</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.705301757904725</v>
+        <v>1.35821445729213e-11</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>13.55821728131235</v>
+        <v>21545096.46646798</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.35821445729213e-11</v>
+        <v>4.972274455711244e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>21545096.46646798</v>
+        <v>6304.711739995686</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.972274455711244e-06</v>
+        <v>3.091451234350812e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>6304.711739995686</v>
+        <v>10.76160419030716</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>3.091451234350812e-05</v>
+        <v>1.417171623692596</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.76160419030716</v>
+        <v>0.003580275360075815</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.417171623692596</v>
+        <v>7.640569539100665</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.003580275360075815</v>
+        <v>0.9503880610316496</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>7.640569539100665</v>
+        <v>0.6035840276174582</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9503880610316496</v>
+        <v>57</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.6035840276174582</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>11.5037589594681</v>
       </c>
     </row>
@@ -6582,72 +6474,66 @@
         <v>3.954308049294188e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.6991286543095708</v>
+        <v>1.707010105797927e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.05527411547621242</v>
+        <v>1.440315342397374e-05</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.707010105797927e-06</v>
+        <v>-0.03073215302283807</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.440315342397374e-05</v>
+        <v>0.3144061272278817</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.03073215302283807</v>
+        <v>0.09979295412269655</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.3144061272278817</v>
+        <v>1.640290079517915</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.09979295412269655</v>
+        <v>1.613551486583493</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.775075408583631</v>
+        <v>15.09671153894763</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.613551486583493</v>
+        <v>1.095491001013913e-11</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>15.09671153894763</v>
+        <v>23974301.59038729</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.095491001013913e-11</v>
+        <v>4.468940630077703e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>23974301.59038729</v>
+        <v>6296.522259847036</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.468940630077703e-06</v>
+        <v>0.0002818620327909189</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>6296.522259847036</v>
+        <v>9.273841997536696</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002818620327909189</v>
+        <v>2.083059718616241</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.273841997536696</v>
+        <v>0.02424130324955808</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>2.083059718616241</v>
+        <v>3.385125943255524</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02424130324955808</v>
+        <v>0.953140819346997</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.385125943255524</v>
+        <v>0.5395998742845926</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.953140819346997</v>
+        <v>49</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.5395998742845926</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.470839886317366</v>
       </c>
     </row>
@@ -6662,72 +6548,66 @@
         <v>4.018800917741138e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.7070281648979391</v>
+        <v>1.782862245732443e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.02643588216052173</v>
+        <v>1.439031442442664e-05</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.782862245732443e-06</v>
+        <v>-0.03403326117215641</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.439031442442664e-05</v>
+        <v>0.3100291319822872</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.03403326117215641</v>
+        <v>0.09727345102699309</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.3100291319822872</v>
+        <v>1.68356209548571</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.09727345102699309</v>
+        <v>1.525974001737469</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.601074620289094</v>
+        <v>3.863897822985598</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.525974001737469</v>
+        <v>6.744153044389394e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.863897822985598</v>
+        <v>12803151.88364104</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>6.744153044389394e-14</v>
+        <v>8.76352789625236e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>12803151.88364104</v>
+        <v>11.05506275504398</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>8.76352789625236e-06</v>
+        <v>0.0001331475799955395</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>11.05506275504398</v>
+        <v>9.124289969035278</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001331475799955395</v>
+        <v>1.253620763957234</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.124289969035278</v>
+        <v>0.01108489119768133</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.253620763957234</v>
+        <v>2.980455301518771</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01108489119768133</v>
+        <v>0.9543088801196737</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.980455301518771</v>
+        <v>1.808613223109693</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9543088801196737</v>
+        <v>17</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.808613223109693</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2021711564793987</v>
       </c>
     </row>
@@ -6742,72 +6622,66 @@
         <v>4.096010675860549e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.7024019002184588</v>
+        <v>1.858554398629018e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.007393007550858588</v>
+        <v>1.437580258558339e-05</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.858554398629018e-06</v>
+        <v>-0.03699068871289572</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.437580258558339e-05</v>
+        <v>0.304623225978507</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.03699068871289572</v>
+        <v>0.09416162483118946</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.304623225978507</v>
+        <v>1.744350857416952</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.09416162483118946</v>
+        <v>1.723890552825312</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.670559217824421</v>
+        <v>3.666423522526407</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.723890552825312</v>
+        <v>6.203890946169e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.666423522526407</v>
+        <v>13647871.85181027</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>6.203890946169e-14</v>
+        <v>8.38568056572459e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>13647871.85181027</v>
+        <v>11.55564062494569</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>8.38568056572459e-06</v>
+        <v>0.0001269050994199647</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>11.55564062494569</v>
+        <v>8.684609097493173</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001269050994199647</v>
+        <v>1.257881967908958</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.684609097493173</v>
+        <v>0.009571491634539272</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.257881967908958</v>
+        <v>3.032857271805667</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.009571491634539272</v>
+        <v>0.9567210361147687</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.032857271805667</v>
+        <v>1.77185346417687</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9567210361147687</v>
+        <v>16</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.77185346417687</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2083001009977533</v>
       </c>
     </row>
@@ -6822,72 +6696,66 @@
         <v>4.187481243357911e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.682112275572179</v>
+        <v>1.921786794635095e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.01541014788147477</v>
+        <v>1.436056868120862e-05</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.921786794635095e-06</v>
+        <v>-0.03601963510529446</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.436056868120862e-05</v>
+        <v>0.2978309638677866</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.03601963510529446</v>
+        <v>0.08999602593829771</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2978309638677866</v>
+        <v>1.756939945226452</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.08999602593829771</v>
+        <v>1.610676833542189</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.686530348140934</v>
+        <v>3.756988010267682</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.610676833542189</v>
+        <v>5.908398754576182e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.756988010267682</v>
+        <v>14266255.1894565</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>5.908398754576182e-14</v>
+        <v>8.045834783911935e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>14266255.1894565</v>
+        <v>12.02512984306821</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>8.045834783911935e-06</v>
+        <v>0.00012619384904939</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>12.02512984306821</v>
+        <v>8.025076690840521</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.00012619384904939</v>
+        <v>1.308200077619195</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.025076690840521</v>
+        <v>0.008127118081171831</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.308200077619195</v>
+        <v>3.096982229752356</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.008127118081171831</v>
+        <v>0.9572547816785469</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.096982229752356</v>
+        <v>1.75775882584386</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9572547816785469</v>
+        <v>16</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.75775882584386</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2102889998077863</v>
       </c>
     </row>
@@ -6902,72 +6770,66 @@
         <v>4.293650186517822e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.6439862160918743</v>
+        <v>1.970542857088744e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.06014502270983924</v>
+        <v>1.434596253204115e-05</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.970542857088744e-06</v>
+        <v>-0.03276398402423876</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.434596253204115e-05</v>
+        <v>0.2892393799432655</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.03276398402423876</v>
+        <v>0.08472796937188706</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2892393799432655</v>
+        <v>1.758560551487552</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.08472796937188706</v>
+        <v>1.569478098462356</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.689841503319659</v>
+        <v>4.088710609333445</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.569478098462356</v>
+        <v>4.988576882198113e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.088710609333445</v>
+        <v>16865704.36440628</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.988576882198113e-14</v>
+        <v>6.815382562418687e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>16865704.36440628</v>
+        <v>14.19010590018893</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>6.815382562418687e-06</v>
+        <v>0.0001342150857364499</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>14.19010590018893</v>
+        <v>8.208090174606021</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001342150857364499</v>
+        <v>1.377671220805103</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.208090174606021</v>
+        <v>0.009042438654465688</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.377671220805103</v>
+        <v>3.036118427845114</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.009042438654465688</v>
+        <v>0.9561206570559613</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.036118427845114</v>
+        <v>1.755619037461203</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9561206570559613</v>
+        <v>16</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.755619037461203</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2158861805097413</v>
       </c>
     </row>
@@ -6982,72 +6844,66 @@
         <v>4.407892251808718e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.5942745702416041</v>
+        <v>2.002862831279752e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.1224415688000944</v>
+        <v>1.433251568648864e-05</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.002862831279752e-06</v>
+        <v>-0.02912068924876288</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.433251568648864e-05</v>
+        <v>0.2804862258069978</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.02912068924876288</v>
+        <v>0.07951730132817691</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2804862258069978</v>
+        <v>1.755240147810285</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.07951730132817691</v>
+        <v>1.552474292637454</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.688775770683957</v>
+        <v>4.730486212611803</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.552474292637454</v>
+        <v>3.726815165107863e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.730486212611803</v>
+        <v>22432202.59300592</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.726815165107863e-14</v>
+        <v>5.114030669114831e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>22432202.59300592</v>
+        <v>18.75347229394189</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>5.114030669114831e-06</v>
+        <v>0.0001455743704659579</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>18.75347229394189</v>
+        <v>8.533944051202344</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001455743704659579</v>
+        <v>1.339593365227723</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.533944051202344</v>
+        <v>0.01060191952279543</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.339593365227723</v>
+        <v>2.979873434885548</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01060191952279543</v>
+        <v>0.9544151204073473</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.979873434885548</v>
+        <v>1.762627274943648</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9544151204073473</v>
+        <v>16</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.762627274943648</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2035460612240039</v>
       </c>
     </row>
@@ -7062,72 +6918,66 @@
         <v>4.522073016909528e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.5426601053954968</v>
+        <v>2.017098719139491e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.1924205151744958</v>
+        <v>1.432028652862136e-05</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.017098719139491e-06</v>
+        <v>-0.02575156903018112</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.432028652862136e-05</v>
+        <v>0.2725980450040563</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.02575156903018112</v>
+        <v>0.07497123387488178</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2725980450040563</v>
+        <v>1.795763247349427</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.07497123387488178</v>
+        <v>1.777951356034947</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.74384877649572</v>
+        <v>4.178499926863762</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.777951356034947</v>
+        <v>2.84533598565976e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.178499926863762</v>
+        <v>29182938.6083816</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.84533598565976e-14</v>
+        <v>3.985804652708048e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>29182938.6083816</v>
+        <v>24.23213052199098</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.985804652708048e-06</v>
+        <v>0.0001420865338182652</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>24.23213052199098</v>
+        <v>9.148711871142945</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001420865338182652</v>
+        <v>1.237556031633908</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.148711871142945</v>
+        <v>0.01189249069187177</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.237556031633908</v>
+        <v>2.973681390367378</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01189249069187177</v>
+        <v>0.9530041587712613</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.973681390367378</v>
+        <v>1.728773807364901</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9530041587712613</v>
+        <v>16</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.728773807364901</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2024679555725536</v>
       </c>
     </row>
@@ -7142,72 +6992,66 @@
         <v>4.629389480728946e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.4977817750581094</v>
+        <v>2.01744010770557e-06</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.2644464011126986</v>
+        <v>1.430920554564723e-05</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.01744010770557e-06</v>
+        <v>-0.02275020941751798</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.430920554564723e-05</v>
+        <v>0.2660134155171371</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.02275020941751798</v>
+        <v>0.07128009209277614</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.2660134155171371</v>
+        <v>1.819892428649108</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.07128009209277614</v>
+        <v>1.789259060162337</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.774663244305948</v>
+        <v>4.105363070623972</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.789259060162337</v>
+        <v>2.947618079495951e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.105363070623972</v>
+        <v>27832275.49968511</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.947618079495951e-14</v>
+        <v>4.208161049699525e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>27832275.49968511</v>
+        <v>22.83329780174283</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>4.208161049699525e-06</v>
+        <v>0.0001293158874389833</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>22.83329780174283</v>
+        <v>9.141324930746466</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001293158874389833</v>
+        <v>1.181820120188555</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.141324930746466</v>
+        <v>0.01080612973370578</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.181820120188555</v>
+        <v>2.912252586540002</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01080612973370578</v>
+        <v>0.9531621432495928</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.912252586540002</v>
+        <v>1.686097952513029</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9531621432495928</v>
+        <v>13</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.686097952513029</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2255489753453257</v>
       </c>
     </row>
@@ -7222,72 +7066,66 @@
         <v>4.723891115387185e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.4666703720063728</v>
+        <v>2.01744010770557e-06</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.3359338090873605</v>
+        <v>1.429919652615418e-05</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.01744010770557e-06</v>
+        <v>-0.02016788989706905</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.429919652615418e-05</v>
+        <v>0.2609769806104238</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.02016788989706905</v>
+        <v>0.06851523976133897</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.2609769806104238</v>
+        <v>1.767006280396602</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.06851523976133897</v>
+        <v>1.887201001993036</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.724351089103978</v>
+        <v>4.044487573031522</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.887201001993036</v>
+        <v>3.090977317702612e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.044487573031522</v>
+        <v>27069976.33863056</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.090977317702612e-14</v>
+        <v>4.215578877690231e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>27069976.33863056</v>
+        <v>22.65017545032724</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>4.215578877690231e-06</v>
+        <v>0.0001254418255973172</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>22.65017545032724</v>
+        <v>8.105966863875436</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001254418255973172</v>
+        <v>1.229786229559531</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.105966863875436</v>
+        <v>0.0082423682512251</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.229786229559531</v>
+        <v>3.039740088084495</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.0082423682512251</v>
+        <v>0.9470722172694912</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.039740088084495</v>
+        <v>1.667921654743693</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9470722172694912</v>
+        <v>7</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.667921654743693</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2255149119721232</v>
       </c>
     </row>
@@ -7302,72 +7140,66 @@
         <v>4.805755953675592e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.4503623071802376</v>
+        <v>2.01744010770557e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.4042627428360346</v>
+        <v>1.428979980589104e-05</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.01744010770557e-06</v>
+        <v>-0.01986000492455793</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.428979980589104e-05</v>
+        <v>0.2565341491334487</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.01986000492455793</v>
+        <v>0.06620366223168271</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.2565341491334487</v>
+        <v>1.719201395313985</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.06620366223168271</v>
+        <v>1.62322745333887</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.655375421293084</v>
+        <v>4.300035024836498</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.62322745333887</v>
+        <v>5.748727141641913e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.300035024836498</v>
+        <v>14895114.61198817</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.748727141641913e-14</v>
+        <v>7.563704430699436e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>14895114.61198817</v>
+        <v>12.75438123993585</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>7.563704430699436e-06</v>
+        <v>0.0001385906000406793</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>12.75438123993585</v>
+        <v>7.060386756206914</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001385906000406793</v>
+        <v>1.675001553558524</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.060386756206914</v>
+        <v>0.006908611295858009</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.675001553558524</v>
+        <v>3.128608235305343</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.006908611295858009</v>
+        <v>0.944738337254468</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.128608235305343</v>
+        <v>1.800207548937177</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.944738337254468</v>
+        <v>7</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.800207548937177</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1999854399297829</v>
       </c>
     </row>
@@ -7382,72 +7214,66 @@
         <v>4.888077736463552e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.4415621891348805</v>
+        <v>2.01744010770557e-06</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.4693680523106503</v>
+        <v>1.427955280602881e-05</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.01744010770557e-06</v>
+        <v>-0.02277695947340715</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.427955280602881e-05</v>
+        <v>0.2516951103185775</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.02277695947340715</v>
+        <v>0.06386721885801112</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.2516951103185775</v>
+        <v>1.696865788422612</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.06386721885801112</v>
+        <v>1.582643599641895</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.626228404389799</v>
+        <v>3.753317230468762</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.582643599641895</v>
+        <v>7.545449845301537e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.753317230468762</v>
+        <v>11386138.10617572</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>7.545449845301537e-14</v>
+        <v>9.809432364593154e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>11386138.10617572</v>
+        <v>9.782233634482695</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>9.809432364593154e-06</v>
+        <v>0.0001589694627335344</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>9.782233634482695</v>
+        <v>8.141438826152562</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001589694627335344</v>
+        <v>1.72256087575338</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.141438826152562</v>
+        <v>0.01053697705700552</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.72256087575338</v>
+        <v>3.063200005191217</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01053697705700552</v>
+        <v>0.9436321378566016</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.063200005191217</v>
+        <v>1.76492582591981</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9436321378566016</v>
+        <v>7</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.76492582591981</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.180648526058359</v>
       </c>
     </row>
@@ -7462,72 +7288,66 @@
         <v>4.980685440003181e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.4349011592218261</v>
+        <v>2.055021646026593e-06</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.5287216335996971</v>
+        <v>1.426730447359376e-05</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.055021646026593e-06</v>
+        <v>-0.02699880526693079</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.426730447359376e-05</v>
+        <v>0.2464326541252844</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.02699880526693079</v>
+        <v>0.06145486064704161</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.2464326541252844</v>
+        <v>1.685552051538878</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.06145486064704161</v>
+        <v>1.55236591205912</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.608200273792999</v>
+        <v>3.77649015691693</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.55236591205912</v>
+        <v>7.453134654261994e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.77649015691693</v>
+        <v>11583882.11975615</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>7.453134654261994e-14</v>
+        <v>9.631884095278924e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>11583882.11975615</v>
+        <v>10.00108748720277</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.631884095278924e-06</v>
+        <v>0.0001342088855199372</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>10.00108748720277</v>
+        <v>9.55814283807042</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001342088855199372</v>
+        <v>1.217526838559449</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.55814283807042</v>
+        <v>0.01226106804780903</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.217526838559449</v>
+        <v>3.045980718167431</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01226106804780903</v>
+        <v>0.9422944514780535</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.045980718167431</v>
+        <v>1.807749284816244</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9422944514780535</v>
+        <v>7</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.807749284816244</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.192233425724063</v>
       </c>
     </row>
@@ -7542,72 +7362,66 @@
         <v>5.084146794881688e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.4305232000009704</v>
+        <v>2.125287676732215e-06</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.5739224691753031</v>
+        <v>1.425242327182778e-05</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.125287676732215e-06</v>
+        <v>-0.03235682780853063</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.425242327182778e-05</v>
+        <v>0.2397023694360697</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.03235682780853063</v>
+        <v>0.05849828855648202</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.2397023694360697</v>
+        <v>1.687403408512061</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.05849828855648202</v>
+        <v>1.533505524083216</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.609852471879849</v>
+        <v>3.940384848708594</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.533505524083216</v>
+        <v>6.846023740090166e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.940384848708594</v>
+        <v>12689721.16971243</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>6.846023740090166e-14</v>
+        <v>8.792338790739564e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>12689721.16971243</v>
+        <v>11.02408516800651</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>8.792338790739564e-06</v>
+        <v>0.0001238133676442354</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>11.02408516800651</v>
+        <v>9.265733145138505</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001238133676442354</v>
+        <v>1.169218330262772</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.265733145138505</v>
+        <v>0.01062984942995241</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.169218330262772</v>
+        <v>2.939624447885096</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01062984942995241</v>
+        <v>0.9434163486650085</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.939624447885096</v>
+        <v>1.822751281201535</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9434163486650085</v>
+        <v>12</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.822751281201535</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2044831073379985</v>
       </c>
     </row>
@@ -7622,72 +7436,66 @@
         <v>5.190577463606064e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.4332097223012798</v>
+        <v>2.189751224583344e-06</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.5900615355481529</v>
+        <v>1.423416891394495e-05</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.189751224583344e-06</v>
+        <v>-0.0386431219556196</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.423416891394495e-05</v>
+        <v>0.2312185114431074</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.0386431219556196</v>
+        <v>0.05494900824699438</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.2312185114431074</v>
+        <v>1.74153979804865</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.05494900824699438</v>
+        <v>1.714127223394173</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.676058336606973</v>
+        <v>4.00180308059752</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.714127223394173</v>
+        <v>6.637495709610803e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.00180308059752</v>
+        <v>13358102.93645294</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>6.637495709610803e-14</v>
+        <v>8.51242249314573e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>13358102.93645294</v>
+        <v>11.84387526506653</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>8.51242249314573e-06</v>
+        <v>0.0001213977297776926</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>11.84387526506653</v>
+        <v>8.115956074513919</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001213977297776926</v>
+        <v>1.237378623716904</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.115956074513919</v>
+        <v>0.007996315863927815</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.237378623716904</v>
+        <v>3.042926839959802</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.007996315863927815</v>
+        <v>0.9460533328112339</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.042926839959802</v>
+        <v>1.742954425964962</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9460533328112339</v>
+        <v>11</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.742954425964962</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2033552046604599</v>
       </c>
     </row>
@@ -7702,72 +7510,66 @@
         <v>5.28879977188903e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.4431517607748682</v>
+        <v>2.245172988368894e-06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.5680838634468621</v>
+        <v>1.421249664953798e-05</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.245172988368894e-06</v>
+        <v>-0.04359546520966943</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.421249664953798e-05</v>
+        <v>0.2242062018193933</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.04359546520966943</v>
+        <v>0.05216687264908235</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2242062018193933</v>
+        <v>1.733947516337546</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.05216687264908235</v>
+        <v>1.663739062565415</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.667707185006955</v>
+        <v>4.189515955477427</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.663739062565415</v>
+        <v>6.056029531766712e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.189515955477427</v>
+        <v>14045045.94148772</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>6.056029531766712e-14</v>
+        <v>8.080535684419763e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>14045045.94148772</v>
+        <v>11.94632464193134</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>8.080535684419763e-06</v>
+        <v>0.0001244729709652261</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>11.94632464193134</v>
+        <v>7.03844891359121</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001244729709652261</v>
+        <v>1.417262299614735</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.03844891359121</v>
+        <v>0.006166361495119772</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.417262299614735</v>
+        <v>3.147877232593732</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.006166361495119772</v>
+        <v>0.9464654164171398</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.147877232593732</v>
+        <v>1.789549616740102</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9464654164171398</v>
+        <v>11</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.789549616740102</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1918641465658839</v>
       </c>
     </row>
@@ -7782,72 +7584,66 @@
         <v>5.376375174856939e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.4558681682459881</v>
+        <v>2.288857707863699e-06</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.5197962114739907</v>
+        <v>1.418848479069303e-05</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.288857707863699e-06</v>
+        <v>-0.04614669839033925</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.418848479069303e-05</v>
+        <v>0.2196300182661078</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.04614669839033925</v>
+        <v>0.05036630650552128</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.2196300182661078</v>
+        <v>1.743039107863612</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.05036630650552128</v>
+        <v>1.698171291264414</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.684255764999607</v>
+        <v>4.276962714961601</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.698171291264414</v>
+        <v>5.810918084170775e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.276962714961601</v>
+        <v>14551716.11485104</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>5.810918084170775e-14</v>
+        <v>7.822746573182587e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>14551716.11485104</v>
+        <v>12.30476093929742</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>7.822746573182587e-06</v>
+        <v>0.0001354101967468076</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>12.30476093929742</v>
+        <v>7.34941383139818</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001354101967468076</v>
+        <v>1.597704980357286</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>7.34941383139818</v>
+        <v>0.007314030614156716</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.597704980357286</v>
+        <v>3.132619444501301</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.007314030614156716</v>
+        <v>0.9453089770887344</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.132619444501301</v>
+        <v>1.803312476792822</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9453089770887344</v>
+        <v>11</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.803312476792822</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1805940316472596</v>
       </c>
     </row>
@@ -7862,72 +7658,66 @@
         <v>5.45267008104404e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.4708028318752172</v>
+        <v>2.319856890669719e-06</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.4564027220743188</v>
+        <v>1.41629728148757e-05</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.319856890669719e-06</v>
+        <v>-0.04801975126996846</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.41629728148757e-05</v>
+        <v>0.2157937955432897</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.04801975126996846</v>
+        <v>0.0488725127376846</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.2157937955432897</v>
+        <v>1.744411194723075</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.0488725127376846</v>
+        <v>1.616555119764799</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.692495953142829</v>
+        <v>4.265662612030305</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.616555119764799</v>
+        <v>5.841746095281631e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.265662612030305</v>
+        <v>14430729.68299396</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>5.841746095281631e-14</v>
+        <v>7.88591068590492e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>14430729.68299396</v>
+        <v>12.16520018919224</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>7.88591068590492e-06</v>
+        <v>0.0001344044508742696</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>12.16520018919224</v>
+        <v>9.171943903680079</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001344044508742696</v>
+        <v>1.233952772820925</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.171943903680079</v>
+        <v>0.01130671461608812</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.233952772820925</v>
+        <v>3.029098735664705</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01130671461608812</v>
+        <v>0.94551770462538</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.029098735664705</v>
+        <v>1.744580737022827</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.94551770462538</v>
+        <v>6</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.744580737022827</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1879914551459935</v>
       </c>
     </row>
@@ -7942,72 +7732,66 @@
         <v>5.514563153024561e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.4892064126089167</v>
+        <v>2.340381961872506e-06</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.381261896502453</v>
+        <v>1.413632780364618e-05</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.340381961872506e-06</v>
+        <v>-0.0488527435337911</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.413632780364618e-05</v>
+        <v>0.2130122195134892</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.0488527435337911</v>
+        <v>0.04776104974962589</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.2130122195134892</v>
+        <v>1.74612375991209</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.04776104974962589</v>
+        <v>1.591261095847504</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.69320031749051</v>
+        <v>4.269703886902253</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.591261095847504</v>
+        <v>5.830692902932148e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.269703886902253</v>
+        <v>14467383.32827965</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>5.830692902932148e-14</v>
+        <v>7.863435013324419e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>14467383.32827965</v>
+        <v>12.20394229715039</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>7.863435013324419e-06</v>
+        <v>0.0001282608278949038</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>12.20394229715039</v>
+        <v>9.668220851365815</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001282608278949038</v>
+        <v>1.151527230371906</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.668220851365815</v>
+        <v>0.01198911604275002</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.151527230371906</v>
+        <v>2.898853665086218</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01198911604275002</v>
+        <v>0.9457467265376054</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.898853665086218</v>
+        <v>1.735289183496249</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9457467265376054</v>
+        <v>6</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.735289183496249</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2028271710898923</v>
       </c>
     </row>
@@ -8022,72 +7806,66 @@
         <v>5.5659500874167e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.5118715270093458</v>
+        <v>2.352683186091855e-06</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.3014027366348504</v>
+        <v>1.410930197661497e-05</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.352683186091855e-06</v>
+        <v>-0.04862327864759832</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.410930197661497e-05</v>
+        <v>0.211010601418776</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.04862327864759832</v>
+        <v>0.04688997944131636</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.211010601418776</v>
+        <v>1.740614063283745</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.04688997944131636</v>
+        <v>1.581800701179789</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.687936014911542</v>
+        <v>4.292332247053367</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.581800701179789</v>
+        <v>5.76937833889421e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.292332247053367</v>
+        <v>14573315.10301023</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>5.76937833889421e-14</v>
+        <v>7.794940607596552e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>14573315.10301023</v>
+        <v>12.25309301212405</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>7.794940607596552e-06</v>
+        <v>0.0001227089314953962</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>12.25309301212405</v>
+        <v>8.146625676819196</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001227089314953962</v>
+        <v>1.221331914690911</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.146625676819196</v>
+        <v>0.008143886228073639</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.221331914690911</v>
+        <v>3.070221002674776</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.008143886228073639</v>
+        <v>0.9453959755773491</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.070221002674776</v>
+        <v>1.766664180710605</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9453959755773491</v>
+        <v>6</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.766664180710605</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2008707805542262</v>
       </c>
     </row>
@@ -8102,72 +7880,66 @@
         <v>5.607278988640862e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.5398824795724286</v>
+        <v>2.356034826853885e-06</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.2174349562293125</v>
+        <v>1.408224549186475e-05</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.356034826853885e-06</v>
+        <v>-0.04821740378570986</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.408224549186475e-05</v>
+        <v>0.2094650899788293</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.04821740378570986</v>
+        <v>0.04620084281892289</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.2094650899788293</v>
+        <v>1.733070751435501</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.04620084281892289</v>
+        <v>1.572218408207399</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.683382541730755</v>
+        <v>4.31687718950078</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.572218408207399</v>
+        <v>5.703957678541211e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.31687718950078</v>
+        <v>14749153.96125537</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>5.703957678541211e-14</v>
+        <v>7.672472954537796e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>14749153.96125537</v>
+        <v>12.40824936329194</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>7.672472954537796e-06</v>
+        <v>0.0001242716047818358</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>12.40824936329194</v>
+        <v>7.32215026786876</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001242716047818358</v>
+        <v>1.337733040227905</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>7.32215026786876</v>
+        <v>0.006662683471026352</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.337733040227905</v>
+        <v>3.112888374240222</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.006662683471026352</v>
+        <v>0.9458051474718718</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.112888374240222</v>
+        <v>1.777887008696605</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9458051474718718</v>
+        <v>6</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.777887008696605</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1985461061841721</v>
       </c>
     </row>
@@ -8544,7 +8316,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.530197685498118</v>
+        <v>1.485494871041091</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.491317928733162</v>
@@ -8633,7 +8405,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.545646706878645</v>
+        <v>1.495352261068241</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.361901197013639</v>
@@ -8722,7 +8494,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.544774802919005</v>
+        <v>1.494129629238793</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.373378488882254</v>
@@ -8811,7 +8583,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.588245607536249</v>
+        <v>1.520931392017035</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.719753084003452</v>
@@ -8900,7 +8672,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.602625175630058</v>
+        <v>1.517536373390947</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.748140404190162</v>
@@ -8989,7 +8761,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.591549699374963</v>
+        <v>1.518732272242235</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.752385664469369</v>
@@ -9078,7 +8850,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.57873954025918</v>
+        <v>1.501880086661909</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.099753581614515</v>
@@ -9167,7 +8939,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.586263487266521</v>
+        <v>1.503688136916961</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.844966568644116</v>
@@ -9256,7 +9028,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.592536232217622</v>
+        <v>1.508242722074219</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.906982329545699</v>
@@ -9345,7 +9117,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.579082126592736</v>
+        <v>1.498298224844955</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.825586572974859</v>
@@ -9434,7 +9206,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.578288994114131</v>
+        <v>1.49701766942481</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.181536210054463</v>
@@ -9523,7 +9295,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.571225856293078</v>
+        <v>1.491240705633422</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.044257367933937</v>
@@ -9612,7 +9384,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.570690058703526</v>
+        <v>1.484227714880933</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.942943690252029</v>
@@ -9701,7 +9473,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.553811894943761</v>
+        <v>1.473437208901492</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.819909476684941</v>
@@ -9790,7 +9562,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.544691431323776</v>
+        <v>1.459559397884319</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.120309712570058</v>
@@ -9879,7 +9651,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.546361234076133</v>
+        <v>1.461525583963428</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.089472405290762</v>
@@ -9968,7 +9740,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.535551653322686</v>
+        <v>1.455466672392277</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.830904314441977</v>
@@ -10057,7 +9829,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.522524401232823</v>
+        <v>1.444550990792081</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.857844573332</v>
@@ -10146,7 +9918,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.507783170205833</v>
+        <v>1.433711208360267</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.928512438738514</v>
@@ -10235,7 +10007,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.494691908894547</v>
+        <v>1.426747736099864</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.783183314062216</v>
@@ -10324,7 +10096,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.48615078503011</v>
+        <v>1.415063396834012</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.829546027542353</v>
@@ -10413,7 +10185,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.490645565047533</v>
+        <v>1.423857506317515</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.65969748497592</v>
@@ -10502,7 +10274,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.49104707750684</v>
+        <v>1.424655711208146</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.686071339704557</v>
@@ -10591,7 +10363,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.486750762269997</v>
+        <v>1.409600825245421</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.825518916617763</v>
@@ -10680,7 +10452,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.491776253183669</v>
+        <v>1.411597040963962</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.780991918226701</v>
@@ -10769,7 +10541,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.492598120238561</v>
+        <v>1.416438670005282</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.732652247253381</v>
@@ -10858,7 +10630,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.492376618598313</v>
+        <v>1.413601205781349</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.810090388372081</v>
@@ -10947,7 +10719,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.500232351403633</v>
+        <v>1.426485811450055</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.803780255598073</v>
@@ -11036,7 +10808,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.49692700968497</v>
+        <v>1.422465628761106</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.587468669921564</v>
@@ -11125,7 +10897,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.503607994357586</v>
+        <v>1.434443202678565</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.815098341604442</v>
@@ -11214,7 +10986,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.501865980024001</v>
+        <v>1.435528882112543</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.853714878093364</v>
@@ -11303,7 +11075,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.503581555798374</v>
+        <v>1.434457425556048</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.824600196082582</v>
@@ -11392,7 +11164,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.502372219248964</v>
+        <v>1.436250332354843</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.729015763040202</v>
@@ -11481,7 +11253,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.524150446629085</v>
+        <v>1.447373472872313</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.949610010351796</v>
@@ -11570,7 +11342,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.546889847215576</v>
+        <v>1.460757930920563</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.898863050707694</v>
@@ -11659,7 +11431,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.55857703023799</v>
+        <v>1.468005111778815</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.758936571820933</v>
@@ -11748,7 +11520,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.563310071776211</v>
+        <v>1.462859257733183</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.930777406698202</v>
@@ -11837,7 +11609,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.573038769758633</v>
+        <v>1.464868301957069</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.216828639527716</v>
@@ -11926,7 +11698,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.577830972918803</v>
+        <v>1.467171526389902</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.890620530276712</v>
@@ -12015,7 +11787,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.580567194711987</v>
+        <v>1.470476764712741</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.038745837267977</v>
@@ -12104,7 +11876,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.597306132984514</v>
+        <v>1.476122659483986</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.164378838141425</v>
@@ -12193,7 +11965,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.608010723387312</v>
+        <v>1.480077526137685</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.942728235971356</v>
@@ -12282,7 +12054,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.620187175481202</v>
+        <v>1.482955576804498</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.688999036205328</v>
@@ -12371,7 +12143,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.628847843456541</v>
+        <v>1.492466185132814</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.995383969623612</v>
@@ -12460,7 +12232,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.645129768035453</v>
+        <v>1.503350961000683</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.589497492416041</v>
@@ -12549,7 +12321,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.656044286343424</v>
+        <v>1.511369393790778</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.954537627975234</v>
@@ -12638,7 +12410,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.661751742283243</v>
+        <v>1.517182052535531</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.14054771521523</v>
@@ -12727,7 +12499,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.686495469669572</v>
+        <v>1.530066189137898</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.946911268649027</v>
@@ -12816,7 +12588,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.667455770786287</v>
+        <v>1.524725786310058</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.111646312206563</v>
@@ -12905,7 +12677,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.655684215792649</v>
+        <v>1.529175792611817</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.112811611341963</v>
@@ -12994,7 +12766,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.655247976836012</v>
+        <v>1.531396433552555</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.675886258245751</v>
@@ -13083,7 +12855,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.658894770348987</v>
+        <v>1.54036210615151</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.742488528513169</v>
@@ -13172,7 +12944,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.646252712252983</v>
+        <v>1.534089833386059</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.0816057919136</v>
@@ -13261,7 +13033,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.641292974750456</v>
+        <v>1.540009244579863</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.853435334608512</v>
@@ -13350,7 +13122,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.628556293541433</v>
+        <v>1.53884970736004</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.760977371910332</v>
@@ -13439,7 +13211,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.60925665980345</v>
+        <v>1.530920497228442</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.081309780275154</v>
@@ -13528,7 +13300,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.610293969108172</v>
+        <v>1.543636523099037</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.985875539788177</v>
@@ -13617,7 +13389,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.599726392875509</v>
+        <v>1.537368198514697</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.678453259246054</v>
@@ -13706,7 +13478,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.585539453983966</v>
+        <v>1.515943123329127</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.160796462043642</v>
@@ -13795,7 +13567,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.579662910489914</v>
+        <v>1.509054166264314</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.703776427167432</v>
@@ -13884,7 +13656,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.580433879270775</v>
+        <v>1.504705048386628</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.814943312199892</v>
@@ -13973,7 +13745,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.599152072488256</v>
+        <v>1.519795579554516</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.787079944470388</v>
@@ -14062,7 +13834,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.5977349738374</v>
+        <v>1.510085224461997</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.837350987770697</v>
@@ -14151,7 +13923,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.602282016975835</v>
+        <v>1.51098062094769</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.929503356821452</v>
@@ -14240,7 +14012,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.615459641946078</v>
+        <v>1.515875245912557</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.728166004203521</v>
@@ -14329,7 +14101,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.606321343001377</v>
+        <v>1.507060560969357</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.903009010317205</v>
@@ -14418,7 +14190,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.62511598793897</v>
+        <v>1.525953741104287</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.022554444054812</v>
@@ -14507,7 +14279,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.641345625382812</v>
+        <v>1.542727220664907</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.86114346490062</v>
@@ -14596,7 +14368,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.65447316909484</v>
+        <v>1.553199468764273</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.02356001244051</v>
@@ -14685,7 +14457,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.631283793953251</v>
+        <v>1.53397709138451</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.759580476617544</v>
@@ -14774,7 +14546,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.652824298354372</v>
+        <v>1.547305655296356</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.605324382863929</v>
@@ -14863,7 +14635,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.65542425239964</v>
+        <v>1.537243286792411</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.64872316661632</v>
@@ -14952,7 +14724,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.64705039582148</v>
+        <v>1.533044114881828</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.640723368034402</v>
@@ -15041,7 +14813,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.660010248051794</v>
+        <v>1.546679821382388</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.488445107773898</v>
@@ -15130,7 +14902,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.655781011725479</v>
+        <v>1.542689163086611</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.644347697553425</v>
@@ -15219,7 +14991,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.657255133302854</v>
+        <v>1.538052206411313</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.799297657879572</v>
@@ -15308,7 +15080,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.645148159073429</v>
+        <v>1.531367017402811</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.708837776561659</v>
@@ -15397,7 +15169,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.634930872871299</v>
+        <v>1.527418106143186</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.792530905499893</v>
@@ -15486,7 +15258,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.659379979615364</v>
+        <v>1.54983353779848</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.76594507016643</v>
@@ -15575,7 +15347,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.661302696518608</v>
+        <v>1.558340462531294</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.682175510693579</v>
@@ -15664,7 +15436,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.671842013669359</v>
+        <v>1.56805992561893</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.819742843213483</v>
@@ -15950,7 +15722,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.670516205261228</v>
+        <v>1.625881824135353</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.465689603830627</v>
@@ -16039,7 +15811,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.657351568615026</v>
+        <v>1.606209702719499</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.457809999725831</v>
@@ -16128,7 +15900,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.664875728205691</v>
+        <v>1.61303064774649</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.490410003332145</v>
@@ -16217,7 +15989,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.677009797057341</v>
+        <v>1.615805018151522</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.493049886566613</v>
@@ -16306,7 +16078,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.709317841110673</v>
+        <v>1.615037399412582</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.512779114336482</v>
@@ -16395,7 +16167,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.734316824206099</v>
+        <v>1.640051137813319</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.96234071508094</v>
@@ -16484,7 +16256,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.74325377460514</v>
+        <v>1.640243521236522</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.186091259423067</v>
@@ -16573,7 +16345,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.744912733403084</v>
+        <v>1.632129122607076</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.730196190213762</v>
@@ -16662,7 +16434,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.730844246417409</v>
+        <v>1.618555237967047</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.628068320574231</v>
@@ -16751,7 +16523,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.73001302977044</v>
+        <v>1.606069508671903</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.699873425202614</v>
@@ -16840,7 +16612,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.719685769107577</v>
+        <v>1.579136441600921</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.406192823635468</v>
@@ -16929,7 +16701,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.717071289268247</v>
+        <v>1.589919792586344</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.762530641999631</v>
@@ -17018,7 +16790,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.714536060583945</v>
+        <v>1.58159956014894</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.752117546725156</v>
@@ -17107,7 +16879,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.707051386555233</v>
+        <v>1.573289151576617</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.341881581028833</v>
@@ -17196,7 +16968,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.723697034885741</v>
+        <v>1.584957050290553</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.388089803518912</v>
@@ -17285,7 +17057,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.740570824121882</v>
+        <v>1.601375107369103</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.933764957831084</v>
@@ -17374,7 +17146,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.744331549785313</v>
+        <v>1.608030707324815</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.924510201515174</v>
@@ -17463,7 +17235,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.74617267303487</v>
+        <v>1.610061219311214</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.910598736825198</v>
@@ -17552,7 +17324,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.752116495755316</v>
+        <v>1.613055312989777</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.783289522704017</v>
@@ -17641,7 +17413,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.729806978761726</v>
+        <v>1.596656831799971</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.262572237244545</v>
@@ -17730,7 +17502,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.710360271607408</v>
+        <v>1.577176383218625</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.619894538176919</v>
@@ -17819,7 +17591,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.702665087325434</v>
+        <v>1.572919664312137</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.193165232999943</v>
@@ -17908,7 +17680,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.69161719066047</v>
+        <v>1.561362157980988</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.292959335238413</v>
@@ -17997,7 +17769,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.695037959342566</v>
+        <v>1.551546225555584</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.56776544683474</v>
@@ -18086,7 +17858,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.694168150619804</v>
+        <v>1.557731862196516</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.563898902245783</v>
@@ -18175,7 +17947,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.69710699030636</v>
+        <v>1.5759367962043</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.372617064826359</v>
@@ -18264,7 +18036,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.690563245109167</v>
+        <v>1.565574886035205</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.022156300680878</v>
@@ -18353,7 +18125,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.694475512733271</v>
+        <v>1.577873435969796</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.619196843929525</v>
@@ -18442,7 +18214,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.690482906630731</v>
+        <v>1.568696752173677</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.304215740814156</v>
@@ -18531,7 +18303,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.678519947285479</v>
+        <v>1.555090171972916</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.620244662976304</v>
@@ -18620,7 +18392,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.662940903547127</v>
+        <v>1.53681343595506</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.591383757794905</v>
@@ -18709,7 +18481,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.65446558481094</v>
+        <v>1.529157116050315</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.513567277133851</v>
@@ -18798,7 +18570,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.643391630672123</v>
+        <v>1.519360696067714</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.274167533304629</v>
@@ -18887,7 +18659,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.643542784853601</v>
+        <v>1.512046220366268</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.577944062766366</v>
@@ -18976,7 +18748,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.652652704477359</v>
+        <v>1.504041590590773</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.634408781170697</v>
@@ -19065,7 +18837,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.668428177716175</v>
+        <v>1.514783072207045</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.662509717148178</v>
@@ -19154,7 +18926,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.675245433640482</v>
+        <v>1.519846912122704</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.173391172248322</v>
@@ -19243,7 +19015,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.681119004995561</v>
+        <v>1.527632123783114</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.710487001208741</v>
@@ -19332,7 +19104,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.689005831852291</v>
+        <v>1.533626129058597</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.733967017884103</v>
@@ -19421,7 +19193,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.682906290152781</v>
+        <v>1.520971680279173</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.66116390939035</v>
@@ -19510,7 +19282,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.680338459346457</v>
+        <v>1.507881349828293</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.65641944060919</v>
@@ -19599,7 +19371,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.6849214773544</v>
+        <v>1.497960369168218</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.468203977224427</v>
@@ -19688,7 +19460,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.684286161325283</v>
+        <v>1.494144688088674</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.169763533420783</v>
@@ -19777,7 +19549,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.695142141291767</v>
+        <v>1.504220961759624</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.385126909605293</v>
@@ -19866,7 +19638,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.696857257071072</v>
+        <v>1.505421797010736</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.279583737775817</v>
@@ -19955,7 +19727,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.697880210755153</v>
+        <v>1.512798395934051</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.499518568404673</v>
@@ -20044,7 +19816,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.708114795727326</v>
+        <v>1.521870155348575</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.61098698936996</v>
@@ -20133,7 +19905,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.717902576086884</v>
+        <v>1.527282223620462</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.511870407846587</v>
@@ -20222,7 +19994,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.717227419566576</v>
+        <v>1.529614461386129</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.584653973524948</v>
@@ -20311,7 +20083,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.71640009038903</v>
+        <v>1.537060587788448</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.584366708440799</v>
@@ -20400,7 +20172,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.71196900009423</v>
+        <v>1.532976502013737</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.87125847558978</v>
@@ -20489,7 +20261,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.721212354242825</v>
+        <v>1.535260753207965</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.686044375173378</v>
@@ -20578,7 +20350,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.714542097675618</v>
+        <v>1.527720174014808</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.051871703702304</v>
@@ -20667,7 +20439,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.715086556376484</v>
+        <v>1.538396219852976</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.46266813083298</v>
@@ -20756,7 +20528,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.695186659019693</v>
+        <v>1.537080253161651</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.270544645752606</v>
@@ -20845,7 +20617,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.700147507465324</v>
+        <v>1.558852823685918</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.175232210253037</v>
@@ -20934,7 +20706,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.69815202721397</v>
+        <v>1.566772308802942</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.16584278917391</v>
@@ -21023,7 +20795,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.7006564440359</v>
+        <v>1.577655274744345</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.11719913744983</v>
@@ -21112,7 +20884,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.691719105668177</v>
+        <v>1.57243342678547</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.09456142152959</v>
@@ -21201,7 +20973,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.689387382384915</v>
+        <v>1.570816931141461</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.186046178959621</v>
@@ -21290,7 +21062,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.688588349930909</v>
+        <v>1.56583476192752</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.116384692985813</v>
@@ -21379,7 +21151,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.685994917686171</v>
+        <v>1.549096691865192</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.394725639832977</v>
@@ -21468,7 +21240,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.683576814886955</v>
+        <v>1.541939313502253</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.377140501272247</v>
@@ -21557,7 +21329,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.680959154038428</v>
+        <v>1.544951690886151</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.057785529800508</v>
@@ -21646,7 +21418,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.685402527689682</v>
+        <v>1.553886490555145</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.324698889083505</v>
@@ -21735,7 +21507,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.684542990077006</v>
+        <v>1.554520546292981</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.06102596781087</v>
@@ -21824,7 +21596,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.684591681246356</v>
+        <v>1.564377933292185</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.366861876981115</v>
@@ -21913,7 +21685,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.681620440780938</v>
+        <v>1.564682166786044</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.172481126464203</v>
@@ -22002,7 +21774,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.673722696806093</v>
+        <v>1.549146813487925</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.053221421182264</v>
@@ -22091,7 +21863,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.703877287457184</v>
+        <v>1.562398564263437</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.162927889488484</v>
@@ -22180,7 +21952,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.705630056978816</v>
+        <v>1.563031383066754</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.199835410693603</v>
@@ -22269,7 +22041,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.713686346149268</v>
+        <v>1.575599945388554</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.229109175849371</v>
@@ -22358,7 +22130,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.710592902209231</v>
+        <v>1.571537023588406</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.625356764501148</v>
@@ -22447,7 +22219,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.720314200404624</v>
+        <v>1.5789080707544</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.12377445296168</v>
@@ -22536,7 +22308,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.729256936197098</v>
+        <v>1.579167926535173</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.818828678183547</v>
@@ -22625,7 +22397,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.728279251156992</v>
+        <v>1.574445840433102</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.834090260070348</v>
@@ -22714,7 +22486,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.742688318290726</v>
+        <v>1.603948225547062</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.315840480487792</v>
@@ -22803,7 +22575,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.724247480100585</v>
+        <v>1.597949826614379</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.9423407655548</v>
@@ -22892,7 +22664,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.732908531380016</v>
+        <v>1.615032137196869</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.843209586062575</v>
@@ -22981,7 +22753,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.73095654307343</v>
+        <v>1.610147953690501</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.977559748671236</v>
@@ -23070,7 +22842,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.729023868787849</v>
+        <v>1.60510293257032</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.255181197680092</v>
@@ -23356,7 +23128,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.75065992345691</v>
+        <v>1.670758513828606</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.848919430907741</v>
@@ -23445,7 +23217,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.751851285521258</v>
+        <v>1.666540094610386</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.67705955299063</v>
@@ -23534,7 +23306,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.748554612226616</v>
+        <v>1.665274915040645</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.645586762526385</v>
@@ -23623,7 +23395,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.758531920788414</v>
+        <v>1.670319262697294</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.951867385974477</v>
@@ -23712,7 +23484,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.724425669469031</v>
+        <v>1.599723662406675</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.180346497815591</v>
@@ -23801,7 +23573,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.714525733909959</v>
+        <v>1.595916167782664</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.147347914440219</v>
@@ -23890,7 +23662,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.689776514149001</v>
+        <v>1.568554627623401</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.758610442572703</v>
@@ -23979,7 +23751,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.690196613866699</v>
+        <v>1.552161278479414</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.09841371933334</v>
@@ -24068,7 +23840,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.688556234817451</v>
+        <v>1.55038081192823</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.219764880595048</v>
@@ -24157,7 +23929,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.681160635799095</v>
+        <v>1.534234513078745</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.527575137097373</v>
@@ -24246,7 +24018,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.678123660781204</v>
+        <v>1.523167895005602</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.375834312276886</v>
@@ -24335,7 +24107,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.674093745448784</v>
+        <v>1.519534969791602</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.301490310302559</v>
@@ -24424,7 +24196,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.672907668601674</v>
+        <v>1.505857801925721</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.536211655088778</v>
@@ -24513,7 +24285,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.667952397554267</v>
+        <v>1.504999642618122</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.362857673220903</v>
@@ -24602,7 +24374,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.669925816852308</v>
+        <v>1.502661543304317</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.335903396294392</v>
@@ -24691,7 +24463,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.684055883811516</v>
+        <v>1.519967137556706</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.629988779736409</v>
@@ -24780,7 +24552,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.674077677666242</v>
+        <v>1.518681225745632</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.082869652064622</v>
@@ -24869,7 +24641,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.679636733499473</v>
+        <v>1.527644410740786</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.753326556797168</v>
@@ -24958,7 +24730,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.677772545880077</v>
+        <v>1.529582499904795</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.268132893683319</v>
@@ -25047,7 +24819,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.66797714590104</v>
+        <v>1.52716675518111</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.742990005376106</v>
@@ -25136,7 +24908,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.668405214106501</v>
+        <v>1.521885532162243</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.623880730936169</v>
@@ -25225,7 +24997,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.665824842044368</v>
+        <v>1.521638181642697</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.620102171665053</v>
@@ -25314,7 +25086,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.661061320548007</v>
+        <v>1.528745780580034</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.336047269957731</v>
@@ -25403,7 +25175,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.663200985824108</v>
+        <v>1.525792498138432</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.468877606708014</v>
@@ -25492,7 +25264,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.667999916321065</v>
+        <v>1.530526240686656</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.721297007157022</v>
@@ -25581,7 +25353,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.666186868032315</v>
+        <v>1.536816167068182</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.714915075445763</v>
@@ -25670,7 +25442,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.665092132203508</v>
+        <v>1.538795646569862</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.631434501162738</v>
@@ -25759,7 +25531,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.668036791610136</v>
+        <v>1.558442536055332</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.475009479236243</v>
@@ -25848,7 +25620,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.658826558515919</v>
+        <v>1.549370259217299</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.105846860723293</v>
@@ -25937,7 +25709,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.657177526281153</v>
+        <v>1.547289527994085</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.606921479555414</v>
@@ -26026,7 +25798,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.649948577113731</v>
+        <v>1.537237368697072</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.821667814760473</v>
@@ -26115,7 +25887,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.656291266558434</v>
+        <v>1.538276053975397</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.812080378596449</v>
@@ -26204,7 +25976,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.643629908410222</v>
+        <v>1.525404715041923</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.200546912962865</v>
@@ -26293,7 +26065,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.653340722037101</v>
+        <v>1.523804536086829</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.49256469458855</v>
@@ -26382,7 +26154,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.662623408241183</v>
+        <v>1.524970601921478</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.605013657658446</v>
@@ -26471,7 +26243,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.662838721013011</v>
+        <v>1.523623238875367</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.798639545255611</v>
@@ -26560,7 +26332,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.674401096192815</v>
+        <v>1.529467394742825</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.728721096004271</v>
@@ -26649,7 +26421,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.672543561228346</v>
+        <v>1.522097725830927</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.937060617043436</v>
@@ -26738,7 +26510,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.672232353677807</v>
+        <v>1.523559259184142</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.391610311815817</v>
@@ -26827,7 +26599,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.673098149251307</v>
+        <v>1.525172126673154</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.730658956905449</v>
@@ -26916,7 +26688,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.674602625453997</v>
+        <v>1.517807785479523</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.394228057637485</v>
@@ -27005,7 +26777,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.67717999926562</v>
+        <v>1.518326266868176</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.802229595053453</v>
@@ -27094,7 +26866,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.679681326153099</v>
+        <v>1.515732457627421</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.43782660798795</v>
@@ -27183,7 +26955,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.684916632215358</v>
+        <v>1.519452330071555</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.89786268682042</v>
@@ -27272,7 +27044,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.685375215729607</v>
+        <v>1.520066605179873</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.566247923999258</v>
@@ -27361,7 +27133,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.689075773455278</v>
+        <v>1.524725795733657</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.789375894536065</v>
@@ -27450,7 +27222,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.696710121644578</v>
+        <v>1.535020132990417</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.545661327181471</v>
@@ -27539,7 +27311,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.703228788720477</v>
+        <v>1.538551556242425</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.999341585711903</v>
@@ -27628,7 +27400,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.695345765660449</v>
+        <v>1.53978928397275</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.777039627100614</v>
@@ -27717,7 +27489,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.700282611682113</v>
+        <v>1.554415167049272</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.741996079616313</v>
@@ -27806,7 +27578,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.702490118430488</v>
+        <v>1.559978945971542</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.252424479163408</v>
@@ -27895,7 +27667,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.711176448812378</v>
+        <v>1.564383455364279</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.204699727508484</v>
@@ -27984,7 +27756,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.710687246221007</v>
+        <v>1.570523154134754</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.299886534211364</v>
@@ -28073,7 +27845,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.712452150597647</v>
+        <v>1.577706784667874</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.898940935374783</v>
@@ -28162,7 +27934,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.698768467229617</v>
+        <v>1.577143998986573</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.794029649964348</v>
@@ -28251,7 +28023,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.69302090179395</v>
+        <v>1.582327910969532</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.320764931979969</v>
@@ -28340,7 +28112,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.694326214240451</v>
+        <v>1.586599531401103</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.077299968979164</v>
@@ -28429,7 +28201,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.693864068741493</v>
+        <v>1.589875149199441</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.002445185091469</v>
@@ -28518,7 +28290,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.680569005475004</v>
+        <v>1.566838460684587</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.268196040446878</v>
@@ -28607,7 +28379,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.678680018528482</v>
+        <v>1.561967620332567</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.190467620712464</v>
@@ -28696,7 +28468,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.68015979786118</v>
+        <v>1.561431898728506</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.956951738738215</v>
@@ -28785,7 +28557,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.685891100137049</v>
+        <v>1.559073293951574</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.052622677820114</v>
@@ -28874,7 +28646,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.687281493058188</v>
+        <v>1.551741257796401</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.100098240739958</v>
@@ -28963,7 +28735,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.688301932702087</v>
+        <v>1.555457801694348</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.943317247361631</v>
@@ -29052,7 +28824,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.689052763557499</v>
+        <v>1.558329591355528</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.077465781663284</v>
@@ -29141,7 +28913,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.69171640352087</v>
+        <v>1.558621811372273</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.887374923095291</v>
@@ -29230,7 +29002,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.695162330259796</v>
+        <v>1.575486687222998</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.109633371083476</v>
@@ -29319,7 +29091,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.704447329651646</v>
+        <v>1.573781563838531</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.964948656621799</v>
@@ -29408,7 +29180,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.699886684183823</v>
+        <v>1.553747169874089</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.01429080911144</v>
@@ -29497,7 +29269,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.709308124029169</v>
+        <v>1.54848618494346</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.084823798186179</v>
@@ -29586,7 +29358,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.719075080075167</v>
+        <v>1.553529884465185</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.732184373252191</v>
@@ -29675,7 +29447,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.722798364129007</v>
+        <v>1.561144951351399</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.794138625694858</v>
@@ -29764,7 +29536,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.720347086583348</v>
+        <v>1.554297661365681</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.371842737732266</v>
@@ -29853,7 +29625,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.730789861888206</v>
+        <v>1.573465390172352</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.066230055163343</v>
@@ -29942,7 +29714,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.734497970310487</v>
+        <v>1.582329227741486</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.506127927329413</v>
@@ -30031,7 +29803,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.734307870889795</v>
+        <v>1.579368387020954</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.809894739070689</v>
@@ -30120,7 +29892,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.730897220891132</v>
+        <v>1.585702361568506</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.333133392658127</v>
@@ -30209,7 +29981,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.740240431940341</v>
+        <v>1.602971300057887</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.22491090025685</v>
@@ -30298,7 +30070,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.76896447400844</v>
+        <v>1.639614963918916</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.239539802910268</v>
@@ -30387,7 +30159,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.780648528929509</v>
+        <v>1.654533002522519</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.398060344568937</v>
@@ -30476,7 +30248,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.784056037442096</v>
+        <v>1.667299455651326</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.354459340545704</v>
@@ -30762,7 +30534,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.821072099941663</v>
+        <v>1.692393774955177</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.724316464773305</v>
@@ -30851,7 +30623,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.818356901874366</v>
+        <v>1.701164420233922</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.524916971827456</v>
@@ -30940,7 +30712,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.81184394259398</v>
+        <v>1.696177317068636</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.628326373980663</v>
@@ -31029,7 +30801,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.810676406380294</v>
+        <v>1.683687473200366</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.773307527077015</v>
@@ -31118,7 +30890,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.784991362174006</v>
+        <v>1.642894115157444</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.870535225727424</v>
@@ -31207,7 +30979,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.783937224205296</v>
+        <v>1.647155192872185</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.715021032104509</v>
@@ -31296,7 +31068,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.774851164523388</v>
+        <v>1.638006249140146</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.903788103841374</v>
@@ -31385,7 +31157,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.761497494986993</v>
+        <v>1.621829503166937</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.907529639177406</v>
@@ -31474,7 +31246,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.75550771756872</v>
+        <v>1.616284621556222</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.215997586364885</v>
@@ -31563,7 +31335,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.752209007659239</v>
+        <v>1.610535081638504</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.508109218323486</v>
@@ -31652,7 +31424,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.749764803660603</v>
+        <v>1.605372741273177</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.753399052592692</v>
@@ -31741,7 +31513,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.750763709716787</v>
+        <v>1.606048633221165</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.658336070855622</v>
@@ -31830,7 +31602,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.751428512202237</v>
+        <v>1.602490073098571</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.641615389083402</v>
@@ -31919,7 +31691,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.751574582455055</v>
+        <v>1.609630480183699</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.521989544936939</v>
@@ -32008,7 +31780,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.759031319291527</v>
+        <v>1.613115263297801</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.584362878310131</v>
@@ -32097,7 +31869,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.769098056620467</v>
+        <v>1.63022969269234</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.405544734630567</v>
@@ -32186,7 +31958,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.776027248902622</v>
+        <v>1.622857960041058</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.336034423621615</v>
@@ -32275,7 +32047,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.785864367822601</v>
+        <v>1.636851740112027</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.670461352279666</v>
@@ -32364,7 +32136,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.785059969815272</v>
+        <v>1.641149016315145</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.340697067509315</v>
@@ -32453,7 +32225,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.791019372773046</v>
+        <v>1.649631088622169</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.252559102482153</v>
@@ -32542,7 +32314,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.792464189676152</v>
+        <v>1.657242501014825</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.479587900120335</v>
@@ -32631,7 +32403,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.796992645355168</v>
+        <v>1.665723819841435</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.71249340847256</v>
@@ -32720,7 +32492,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.792528031305301</v>
+        <v>1.66588946210752</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.592853780737231</v>
@@ -32809,7 +32581,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.789789595351647</v>
+        <v>1.656548671998049</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.021335865459349</v>
@@ -32898,7 +32670,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.788085180984491</v>
+        <v>1.656088670781672</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.620801502040005</v>
@@ -32987,7 +32759,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.790033381263483</v>
+        <v>1.658251199420327</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.581627001390414</v>
@@ -33076,7 +32848,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.786439069386793</v>
+        <v>1.655573535647151</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.955465889964322</v>
@@ -33165,7 +32937,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.79296373096941</v>
+        <v>1.666814958393203</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.805832205822417</v>
@@ -33254,7 +33026,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.787010973014693</v>
+        <v>1.648757807140831</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.004982081658613</v>
@@ -33343,7 +33115,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.775177636789897</v>
+        <v>1.633819582385047</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.755737357650971</v>
@@ -33432,7 +33204,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.762830510306551</v>
+        <v>1.615208520162423</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.252499855441966</v>
@@ -33521,7 +33293,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.753365230400567</v>
+        <v>1.613312939997144</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.548110788382278</v>
@@ -33610,7 +33382,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.741068205744945</v>
+        <v>1.597280111672778</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.250452029847938</v>
@@ -33699,7 +33471,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.74176378409193</v>
+        <v>1.592669652849407</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.787949563252869</v>
@@ -33788,7 +33560,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.733190012078454</v>
+        <v>1.570934670668153</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.929860837582667</v>
@@ -33877,7 +33649,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.72848169717872</v>
+        <v>1.561222481784771</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.926430604635485</v>
@@ -33966,7 +33738,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.722134445492553</v>
+        <v>1.550841922666926</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.605396413935238</v>
@@ -34055,7 +33827,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.724477118441792</v>
+        <v>1.542165388447631</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.520189587709926</v>
@@ -34144,7 +33916,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.72772852840482</v>
+        <v>1.5376107152385</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.749717429645429</v>
@@ -34233,7 +34005,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.723598335369404</v>
+        <v>1.526723742276739</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.522008567281081</v>
@@ -34322,7 +34094,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.714084498159226</v>
+        <v>1.510715897377425</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.480519990938964</v>
@@ -34411,7 +34183,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.708755286940983</v>
+        <v>1.498739744828407</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.821435971631466</v>
@@ -34500,7 +34272,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.709572850571266</v>
+        <v>1.491928597254967</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.304743929918932</v>
@@ -34589,7 +34361,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.713814538701711</v>
+        <v>1.500322178010597</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.465582125070658</v>
@@ -34678,7 +34450,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.719431641930324</v>
+        <v>1.505234344701983</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.618854379918198</v>
@@ -34767,7 +34539,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.719119196824639</v>
+        <v>1.506902933307414</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.356195874896098</v>
@@ -34856,7 +34628,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.723083256926026</v>
+        <v>1.508756076421665</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.634077428773536</v>
@@ -34945,7 +34717,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.728804296361872</v>
+        <v>1.516918179716272</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.127507966235135</v>
@@ -35034,7 +34806,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.737573300387014</v>
+        <v>1.521582551861991</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.470385100747964</v>
@@ -35123,7 +34895,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.734069156190235</v>
+        <v>1.516527680509639</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.404078316066067</v>
@@ -35212,7 +34984,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.740181132696964</v>
+        <v>1.520672589629557</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.788893615577388</v>
@@ -35301,7 +35073,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.745023340806258</v>
+        <v>1.523930728788369</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.731544775350008</v>
@@ -35390,7 +35162,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.746313266099462</v>
+        <v>1.521360916611133</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.912122059751472</v>
@@ -35479,7 +35251,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.747839869019703</v>
+        <v>1.535690648078287</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.528660323167673</v>
@@ -35568,7 +35340,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.748132342109898</v>
+        <v>1.542403165517551</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.884468680964929</v>
@@ -35657,7 +35429,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.755006312835656</v>
+        <v>1.560241419732638</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.05925713045629</v>
@@ -35746,7 +35518,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.75767940874068</v>
+        <v>1.566453028583576</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.788171289374623</v>
@@ -35835,7 +35607,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.757531844807405</v>
+        <v>1.578236939451007</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.076974181330361</v>
@@ -35924,7 +35696,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.75594832912389</v>
+        <v>1.581509084984968</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.866509618116818</v>
@@ -36013,7 +35785,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.753394033180381</v>
+        <v>1.57972129409572</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.810818032142992</v>
@@ -36102,7 +35874,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.756402460653558</v>
+        <v>1.577880737086893</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.023516372283136</v>
@@ -36191,7 +35963,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.755159256852467</v>
+        <v>1.568656332354644</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.32723197380253</v>
@@ -36280,7 +36052,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.754198417786054</v>
+        <v>1.564225084673603</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.911134482528099</v>
@@ -36369,7 +36141,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.752508810997586</v>
+        <v>1.567770887187307</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.63254188985588</v>
@@ -36458,7 +36230,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.753377967532864</v>
+        <v>1.579766970588927</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.881543877153419</v>
@@ -36547,7 +36319,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.749791638693896</v>
+        <v>1.574925899902015</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.415786669011638</v>
@@ -36636,7 +36408,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.745690675100364</v>
+        <v>1.567460628119833</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.168877507490333</v>
@@ -36725,7 +36497,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.735566889566017</v>
+        <v>1.562150970093519</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.924455696300277</v>
@@ -36814,7 +36586,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.729548486107192</v>
+        <v>1.55168132178089</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.873738303779207</v>
@@ -36903,7 +36675,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.732953025017063</v>
+        <v>1.55345934948109</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.582014123696285</v>
@@ -36992,7 +36764,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.73392583272212</v>
+        <v>1.550353978608948</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.602870858716837</v>
@@ -37081,7 +36853,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.735198435870599</v>
+        <v>1.542300600213365</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.997949280359769</v>
@@ -37170,7 +36942,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.738034407042588</v>
+        <v>1.543590319391577</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.904734764226739</v>
@@ -37259,7 +37031,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.739426916580651</v>
+        <v>1.538800235869873</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>4.000556274441971</v>
@@ -37348,7 +37120,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.735930572731256</v>
+        <v>1.527885712603397</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>4.115765150387824</v>
@@ -37437,7 +37209,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.738152959913923</v>
+        <v>1.526243257975574</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.546367393025055</v>
@@ -37526,7 +37298,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.728785364103421</v>
+        <v>1.528664042672417</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.651788282996042</v>
@@ -37615,7 +37387,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.752598281532273</v>
+        <v>1.558605630318873</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.459626108031624</v>
@@ -37704,7 +37476,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.771895856065444</v>
+        <v>1.601951562599151</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.681627711206978</v>
@@ -37793,7 +37565,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.774965975560844</v>
+        <v>1.601472429078506</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.551570669439256</v>
@@ -37882,7 +37654,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.783297225616011</v>
+        <v>1.613595270688424</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.366964835506183</v>
@@ -38168,7 +37940,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.559302531571026</v>
+        <v>1.53144593884047</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.327514225926026</v>
@@ -38257,7 +38029,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.574672925479483</v>
+        <v>1.53618741604529</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.27920520634034</v>
@@ -38346,7 +38118,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.585006145761984</v>
+        <v>1.54501925886122</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.366192140617409</v>
@@ -38435,7 +38207,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.623451916208183</v>
+        <v>1.569188585602843</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.182496350261264</v>
@@ -38524,7 +38296,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.650933181871113</v>
+        <v>1.577092851475422</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.050058595127772</v>
@@ -38613,7 +38385,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.643340221587318</v>
+        <v>1.574007946978488</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.949018694580585</v>
@@ -38702,7 +38474,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.6363979980107</v>
+        <v>1.56664070461546</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.104040128706099</v>
@@ -38791,7 +38563,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.642650393237911</v>
+        <v>1.568606820643405</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.689983420811006</v>
@@ -38880,7 +38652,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.63313806950163</v>
+        <v>1.559195808081434</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.346317353649557</v>
@@ -38969,7 +38741,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.618918027527519</v>
+        <v>1.542863718157663</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.988508362746538</v>
@@ -39058,7 +38830,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.619325911756554</v>
+        <v>1.539258721068277</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.175731241609468</v>
@@ -39147,7 +38919,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.623498170949481</v>
+        <v>1.544108623376958</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.309788020341188</v>
@@ -39236,7 +39008,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.6240429674738</v>
+        <v>1.544335067517534</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.159449882828563</v>
@@ -39325,7 +39097,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.616455710501494</v>
+        <v>1.539699528255502</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.981712804072166</v>
@@ -39414,7 +39186,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.616045004324934</v>
+        <v>1.545688786617654</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.481275808425145</v>
@@ -39503,7 +39275,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.634823551398132</v>
+        <v>1.569446246991325</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.658096889560419</v>
@@ -39592,7 +39364,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.643038163671503</v>
+        <v>1.585323324364683</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.319310793774142</v>
@@ -39681,7 +39453,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.645757498354448</v>
+        <v>1.589340373990611</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.156606993825858</v>
@@ -39770,7 +39542,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.631642272403024</v>
+        <v>1.579882420454794</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.322763105035991</v>
@@ -39859,7 +39631,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.628909695480767</v>
+        <v>1.579555142398877</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.887458063495665</v>
@@ -39948,7 +39720,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.619282895519718</v>
+        <v>1.568618752157443</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.132617516111757</v>
@@ -40037,7 +39809,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.618561678782181</v>
+        <v>1.567242983667551</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.007952801625995</v>
@@ -40126,7 +39898,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.606569850510758</v>
+        <v>1.557360841959982</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.194988564115019</v>
@@ -40215,7 +39987,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.613397367867926</v>
+        <v>1.561553532055334</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.938352951739802</v>
@@ -40304,7 +40076,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.61658106978692</v>
+        <v>1.572858097522352</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.017756937937411</v>
@@ -40393,7 +40165,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.615485440163487</v>
+        <v>1.565823967880372</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.371652433460776</v>
@@ -40482,7 +40254,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.615016718804711</v>
+        <v>1.566048672571863</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.291171814834532</v>
@@ -40571,7 +40343,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.618029848433642</v>
+        <v>1.56822973127171</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.009806988569046</v>
@@ -40660,7 +40432,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.616540499077457</v>
+        <v>1.566312545748561</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.081436389854452</v>
@@ -40749,7 +40521,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.609548401651302</v>
+        <v>1.557326082563828</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.359967103914281</v>
@@ -40838,7 +40610,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.593154461346197</v>
+        <v>1.536665719226195</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.111380667063035</v>
@@ -40927,7 +40699,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.577737011755363</v>
+        <v>1.521454439127106</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.102266449455691</v>
@@ -41016,7 +40788,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.568249941700473</v>
+        <v>1.510029093660568</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.286093748279779</v>
@@ -41105,7 +40877,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.582007716662179</v>
+        <v>1.519574738318342</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.85909910994358</v>
@@ -41194,7 +40966,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.590174923966976</v>
+        <v>1.526319613972525</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.080855788997658</v>
@@ -41283,7 +41055,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.606633854286969</v>
+        <v>1.539578893200506</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.937743291676614</v>
@@ -41372,7 +41144,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.599516279872008</v>
+        <v>1.535860222436259</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.961397831348962</v>
@@ -41461,7 +41233,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.611039948550601</v>
+        <v>1.543693663754719</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.058270187307513</v>
@@ -41550,7 +41322,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.613349089841964</v>
+        <v>1.54532563012082</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.946979103858073</v>
@@ -41639,7 +41411,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.623218060646083</v>
+        <v>1.547663325329238</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.048236469934936</v>
@@ -41728,7 +41500,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.628917116425158</v>
+        <v>1.557375008267184</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.264875913232563</v>
@@ -41817,7 +41589,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.641868107996</v>
+        <v>1.564495285891041</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.365236011298377</v>
@@ -41906,7 +41678,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.648860608609734</v>
+        <v>1.568359917933353</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.962632508542308</v>
@@ -41995,7 +41767,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.66254395787916</v>
+        <v>1.576187143512465</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.369989669738261</v>
@@ -42084,7 +41856,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.673842480408443</v>
+        <v>1.589565365859404</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.676074163729574</v>
@@ -42173,7 +41945,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.687880972843202</v>
+        <v>1.600805175757033</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.297514417363164</v>
@@ -42262,7 +42034,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.704545925575844</v>
+        <v>1.615177692241028</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.14175114585657</v>
@@ -42351,7 +42123,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.7204457014411</v>
+        <v>1.628550577433042</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.079985148052087</v>
@@ -42440,7 +42212,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.711145139433931</v>
+        <v>1.628430265038958</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.920477057347501</v>
@@ -42529,7 +42301,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.707817280617488</v>
+        <v>1.62616101636074</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.984705783200313</v>
@@ -42618,7 +42390,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.709054898145071</v>
+        <v>1.631727623465611</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.72185118548567</v>
@@ -42707,7 +42479,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.716236831238559</v>
+        <v>1.635197228296761</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.204374956923813</v>
@@ -42796,7 +42568,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.706824252445149</v>
+        <v>1.622166361655923</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.256354918501211</v>
@@ -42885,7 +42657,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.69911322540877</v>
+        <v>1.60624882632212</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.934798857226316</v>
@@ -42974,7 +42746,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.682853614178633</v>
+        <v>1.601622820090052</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.126309621702343</v>
@@ -43063,7 +42835,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.677748791955839</v>
+        <v>1.60225698117274</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.95902259021498</v>
@@ -43152,7 +42924,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.676378259602882</v>
+        <v>1.60095184147098</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.122818029570136</v>
@@ -43241,7 +43013,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.669588426120094</v>
+        <v>1.603204485006001</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.052631493994987</v>
@@ -43330,7 +43102,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.666434362680884</v>
+        <v>1.600454248716427</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.447970353398059</v>
@@ -43419,7 +43191,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.669506144860347</v>
+        <v>1.602844548028353</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.803555967970726</v>
@@ -43508,7 +43280,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.679768533624442</v>
+        <v>1.606986218720031</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.746352830423614</v>
@@ -43597,7 +43369,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.688656596900155</v>
+        <v>1.60937473859494</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.477265093637357</v>
@@ -43686,7 +43458,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.682142000735212</v>
+        <v>1.595056847829142</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.227848787663925</v>
@@ -43775,7 +43547,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.685285150266803</v>
+        <v>1.593757052455614</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.505093300236336</v>
@@ -43864,7 +43636,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.697511013744317</v>
+        <v>1.601523452945685</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.989125719863932</v>
@@ -43953,7 +43725,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.687412658668568</v>
+        <v>1.597326513070102</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.011930190006737</v>
@@ -44042,7 +43814,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.702848982621034</v>
+        <v>1.611481172914942</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.159246315987174</v>
@@ -44131,7 +43903,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.708505355116974</v>
+        <v>1.601174081802199</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.055781783556106</v>
@@ -44220,7 +43992,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.715343819779928</v>
+        <v>1.617385496559014</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.296272192557946</v>
@@ -44309,7 +44081,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.728170938285804</v>
+        <v>1.62804403857655</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.516988306321495</v>
@@ -44398,7 +44170,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.735755075244072</v>
+        <v>1.625239887008379</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.616064495028679</v>
@@ -44487,7 +44259,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.73726752206064</v>
+        <v>1.612226504508554</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.49998124586551</v>
@@ -44576,7 +44348,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.734777942915455</v>
+        <v>1.612141138481674</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.597043714039331</v>
@@ -44665,7 +44437,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.736264549170843</v>
+        <v>1.612379213435758</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.384701230586948</v>
@@ -44754,7 +44526,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.734093517437988</v>
+        <v>1.608213717752216</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.418131075809373</v>
@@ -44843,7 +44615,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.728863339004054</v>
+        <v>1.60495461662353</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.553913748938887</v>
@@ -44932,7 +44704,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.721136666388046</v>
+        <v>1.607831407372684</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.703168274078485</v>
@@ -45021,7 +44793,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.694707073736114</v>
+        <v>1.610131825566596</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.725054723818138</v>
@@ -45110,7 +44882,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.698032117537039</v>
+        <v>1.627377692586698</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.773060881328824</v>
@@ -45199,7 +44971,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.698726064878246</v>
+        <v>1.628645647693494</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.771945945297293</v>
@@ -45288,7 +45060,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.708900908942371</v>
+        <v>1.635202238346791</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.66015500138886</v>
@@ -45574,7 +45346,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.53855070636622</v>
+        <v>1.489481067126468</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.820249196143796</v>
@@ -45663,7 +45435,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.554331467185124</v>
+        <v>1.498105963402386</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.535345764227478</v>
@@ -45752,7 +45524,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.556525899779309</v>
+        <v>1.498902616165595</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.668515795283592</v>
@@ -45841,7 +45613,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.585984132560567</v>
+        <v>1.514659991533242</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.795642505144171</v>
@@ -45930,7 +45702,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.577323914510846</v>
+        <v>1.487880559047078</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.536214861629199</v>
@@ -46019,7 +45791,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.581563137814916</v>
+        <v>1.494757991180681</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.617602811896016</v>
@@ -46108,7 +45880,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.577386719766329</v>
+        <v>1.491440889023555</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.98381728573599</v>
@@ -46197,7 +45969,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.573757828199735</v>
+        <v>1.484761706278152</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.17798134613515</v>
@@ -46286,7 +46058,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.574958057719473</v>
+        <v>1.481721927986992</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.849029491885684</v>
@@ -46375,7 +46147,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.562536188642808</v>
+        <v>1.469110878868955</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.876283814512379</v>
@@ -46464,7 +46236,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.56380911495967</v>
+        <v>1.47056244175964</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.356832473231429</v>
@@ -46553,7 +46325,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.564109387324637</v>
+        <v>1.471298271348238</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.040377510306639</v>
@@ -46642,7 +46414,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.571536911690697</v>
+        <v>1.470386260350807</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.916262669800914</v>
@@ -46731,7 +46503,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.558082232576749</v>
+        <v>1.462613770566793</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.940790843543959</v>
@@ -46820,7 +46592,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.550646265889424</v>
+        <v>1.453169596450236</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.951322678405355</v>
@@ -46909,7 +46681,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.550025703588207</v>
+        <v>1.451349499213295</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.804828464101861</v>
@@ -46998,7 +46770,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.548794346476603</v>
+        <v>1.446035231553989</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.892791799455524</v>
@@ -47087,7 +46859,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.540653241136764</v>
+        <v>1.444742031607963</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.141193751788599</v>
@@ -47176,7 +46948,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.534777708191457</v>
+        <v>1.445294854314734</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.222165072517509</v>
@@ -47265,7 +47037,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.534021844881847</v>
+        <v>1.450795935694164</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.84061323289746</v>
@@ -47354,7 +47126,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.534845979949194</v>
+        <v>1.450515884363873</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.8636842074349</v>
@@ -47443,7 +47215,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.535711101074513</v>
+        <v>1.453629299722348</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.882448117828745</v>
@@ -47532,7 +47304,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.532729510144721</v>
+        <v>1.449644570831547</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.946079465626262</v>
@@ -47621,7 +47393,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.537461696443648</v>
+        <v>1.458990451994306</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.822516683508367</v>
@@ -47710,7 +47482,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.536816276501015</v>
+        <v>1.460007546729979</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.97226697497944</v>
@@ -47799,7 +47571,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.536514314758471</v>
+        <v>1.451086167208278</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.206714845199051</v>
@@ -47888,7 +47660,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.54173125040603</v>
+        <v>1.45496829306618</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.309196128596602</v>
@@ -47977,7 +47749,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.543712541843945</v>
+        <v>1.460036406447809</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.312196101593816</v>
@@ -48066,7 +47838,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.549394062950959</v>
+        <v>1.468894742244254</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.742611261764327</v>
@@ -48155,7 +47927,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.549702941816224</v>
+        <v>1.468479115445237</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.790037002778745</v>
@@ -48244,7 +48016,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.549148142474982</v>
+        <v>1.468626608969967</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.974118203662431</v>
@@ -48333,7 +48105,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.550347624859735</v>
+        <v>1.478413143131264</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.751388021750881</v>
@@ -48422,7 +48194,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.547447964858315</v>
+        <v>1.470656596233667</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.048606116984506</v>
@@ -48511,7 +48283,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.557945394989323</v>
+        <v>1.472818460167452</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.121478537341057</v>
@@ -48600,7 +48372,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.570931257264757</v>
+        <v>1.479843508560021</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.915205426762876</v>
@@ -48689,7 +48461,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.578566747237778</v>
+        <v>1.482398614791551</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.877349625819682</v>
@@ -48778,7 +48550,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.574600221230788</v>
+        <v>1.477551871960453</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.826791757976598</v>
@@ -48867,7 +48639,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.591686456915143</v>
+        <v>1.487900892076686</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.01316422244268</v>
@@ -48956,7 +48728,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.588376918881232</v>
+        <v>1.481308493910923</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.687612182626152</v>
@@ -49045,7 +48817,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.598555455116195</v>
+        <v>1.485675621397222</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.844565105448259</v>
@@ -49134,7 +48906,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.611105524576376</v>
+        <v>1.497339353460693</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.095014160771044</v>
@@ -49223,7 +48995,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.62119281872056</v>
+        <v>1.506394367574262</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.840120957422309</v>
@@ -49312,7 +49084,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.633821622007037</v>
+        <v>1.50768245547774</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.737951139253226</v>
@@ -49401,7 +49173,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.634756086027369</v>
+        <v>1.504196220075257</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.060227307009219</v>
@@ -49490,7 +49262,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.652566054075974</v>
+        <v>1.514368418329246</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.50034913358121</v>
@@ -49579,7 +49351,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.657924488663293</v>
+        <v>1.518245661697447</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.129476821355777</v>
@@ -49668,7 +49440,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.647127349061354</v>
+        <v>1.511114614418084</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.075261858528662</v>
@@ -49757,7 +49529,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.666483328314626</v>
+        <v>1.523041777497555</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.975447437342376</v>
@@ -49846,7 +49618,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.657195379269925</v>
+        <v>1.527029875752346</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.787788305726498</v>
@@ -49935,7 +49707,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.641205467881761</v>
+        <v>1.51527540232593</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.133561128903849</v>
@@ -50024,7 +49796,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.643286565945258</v>
+        <v>1.521856553280974</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.583947603843895</v>
@@ -50113,7 +49885,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.644364238992226</v>
+        <v>1.523058748322605</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.874147252982051</v>
@@ -50202,7 +49974,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.630228824253917</v>
+        <v>1.509101874925957</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.027857261829956</v>
@@ -50291,7 +50063,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.623612405583237</v>
+        <v>1.492164911661167</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.130591445543986</v>
@@ -50380,7 +50152,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.607224793779128</v>
+        <v>1.484102528474978</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.889771643570615</v>
@@ -50469,7 +50241,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.588719524286703</v>
+        <v>1.475397668050911</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.923005214866536</v>
@@ -50558,7 +50330,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.58418895414628</v>
+        <v>1.468389285419221</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.965880897333145</v>
@@ -50647,7 +50419,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.570486215502033</v>
+        <v>1.46594310166776</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.885056884648762</v>
@@ -50736,7 +50508,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.566951848536274</v>
+        <v>1.458490051373642</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.104812074972936</v>
@@ -50825,7 +50597,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.560415449387752</v>
+        <v>1.459205242454976</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.739861538021595</v>
@@ -50914,7 +50686,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.568018541128976</v>
+        <v>1.456823607940725</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.745134128627326</v>
@@ -51003,7 +50775,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.582241852021391</v>
+        <v>1.461823597706804</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.833575362436219</v>
@@ -51092,7 +50864,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.579602517812781</v>
+        <v>1.456429659592552</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.977905354571133</v>
@@ -51181,7 +50953,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.583584091999976</v>
+        <v>1.451196610089388</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.068841448922514</v>
@@ -51270,7 +51042,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.588076145187554</v>
+        <v>1.453329611391979</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.857390112515036</v>
@@ -51359,7 +51131,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.584128272438122</v>
+        <v>1.450852779614846</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.662100555565689</v>
@@ -51448,7 +51220,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.600471329710445</v>
+        <v>1.462414278493522</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.214420268998261</v>
@@ -51537,7 +51309,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.605611737308272</v>
+        <v>1.457834746268979</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.890982537224396</v>
@@ -51626,7 +51398,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.613734288346736</v>
+        <v>1.477592018054415</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.935855232970543</v>
@@ -51715,7 +51487,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.620220538354012</v>
+        <v>1.4848933503289</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.122482953337147</v>
@@ -51804,7 +51576,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.640289397627267</v>
+        <v>1.491232270851517</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.073370738796391</v>
@@ -51893,7 +51665,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.642915905249748</v>
+        <v>1.481471718314067</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.83247537141669</v>
@@ -51982,7 +51754,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.643518238822508</v>
+        <v>1.485225804742692</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.060069717854668</v>
@@ -52071,7 +51843,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.651753695920916</v>
+        <v>1.498018804237398</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.994935444365762</v>
@@ -52160,7 +51932,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.653276642734817</v>
+        <v>1.494748765096674</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.136456133622416</v>
@@ -52249,7 +52021,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.657041440606753</v>
+        <v>1.498551239414359</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.181501155968692</v>
@@ -52338,7 +52110,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.649009057278929</v>
+        <v>1.498223741603171</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.188681348896233</v>
@@ -52427,7 +52199,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.655133789397893</v>
+        <v>1.518477073938201</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.290528508741</v>
@@ -52516,7 +52288,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.670700601922178</v>
+        <v>1.548228904519898</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.314634131673411</v>
@@ -52605,7 +52377,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.677882922233669</v>
+        <v>1.549666385026337</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.222779130753658</v>
@@ -52694,7 +52466,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.678602875267234</v>
+        <v>1.552722727299169</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.083619154353384</v>
